--- a/BackTest/2019-10-15 BackTest TRX.xlsx
+++ b/BackTest/2019-10-15 BackTest TRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7000000000000099</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>18.99</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>18.98</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.9000000000000128</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>18.97</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.000000000000014</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>18.97</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.000000000000014</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>18.96</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.100000000000016</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>18.98</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.100000000000016</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>19</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.100000000000016</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>19.01</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.100000000000016</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>19.02</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.100000000000016</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>19.03</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.100000000000016</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>19.05</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.100000000000016</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>19.06</v>
@@ -1466,7 +1488,7 @@
         <v>1.200000000000014</v>
       </c>
       <c r="K24" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>19.09</v>
@@ -1515,7 +1537,7 @@
         <v>1.200000000000014</v>
       </c>
       <c r="K25" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>19.10999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>1.200000000000014</v>
       </c>
       <c r="K26" t="n">
-        <v>11.11111111111076</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>19.12999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>1.300000000000015</v>
       </c>
       <c r="K27" t="n">
-        <v>49.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>19.15</v>
@@ -1662,7 +1684,7 @@
         <v>1.300000000000015</v>
       </c>
       <c r="K28" t="n">
-        <v>49.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>19.16999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>1.400000000000013</v>
       </c>
       <c r="K29" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>19.2</v>
@@ -1760,7 +1782,7 @@
         <v>1.500000000000011</v>
       </c>
       <c r="K30" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L30" t="n">
         <v>19.22</v>
@@ -1809,7 +1831,7 @@
         <v>1.500000000000011</v>
       </c>
       <c r="K31" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L31" t="n">
         <v>19.24</v>
@@ -1860,7 +1882,7 @@
         <v>1.600000000000009</v>
       </c>
       <c r="K32" t="n">
-        <v>55.55555555555565</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L32" t="n">
         <v>19.27</v>
@@ -1911,7 +1933,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K33" t="n">
-        <v>33.3333333333336</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L33" t="n">
         <v>19.29</v>
@@ -1962,7 +1984,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>50.00000000000067</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L34" t="n">
         <v>19.3</v>
@@ -2013,7 +2035,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K35" t="n">
-        <v>42.85714285714344</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L35" t="n">
         <v>19.31000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>50.00000000000044</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>19.33000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>25.00000000000033</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>19.33000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>33.3333333333336</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>19.34000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.099999999999998</v>
       </c>
       <c r="K39" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>19.33000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K40" t="n">
-        <v>27.27272727272751</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>19.34000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.199999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>27.27272727272751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>19.35000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K44" t="n">
-        <v>27.27272727272774</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L44" t="n">
         <v>19.40000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>27.27272727272774</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L45" t="n">
         <v>19.42000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333393</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L46" t="n">
         <v>19.44</v>
@@ -2625,7 +2647,7 @@
         <v>2.5</v>
       </c>
       <c r="K47" t="n">
-        <v>16.66666666666682</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L47" t="n">
         <v>19.46</v>
@@ -2676,7 +2698,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>23.07692307692337</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L48" t="n">
         <v>19.48</v>
@@ -2727,7 +2749,7 @@
         <v>2.699999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>23.07692307692337</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L49" t="n">
         <v>19.52</v>
@@ -2778,7 +2800,7 @@
         <v>2.799999999999997</v>
       </c>
       <c r="K50" t="n">
-        <v>23.07692307692337</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L50" t="n">
         <v>19.54</v>
@@ -2829,7 +2851,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>19.55</v>
@@ -2880,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>14.28571428571458</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L52" t="n">
         <v>19.56</v>
@@ -2931,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>23.07692307692324</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L53" t="n">
         <v>19.57</v>
@@ -2982,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>23.07692307692324</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L54" t="n">
         <v>19.57999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>19.59</v>
@@ -3084,7 +3106,7 @@
         <v>3.099999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>23.07692307692324</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>19.59999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>3.199999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>19.60999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K58" t="n">
-        <v>23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>19.61999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K59" t="n">
-        <v>33.33333333333333</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L59" t="n">
         <v>19.61999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K60" t="n">
-        <v>27.27272727272739</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L60" t="n">
         <v>19.62999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>3.399999999999991</v>
       </c>
       <c r="K61" t="n">
-        <v>16.66666666666696</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>19.63999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K62" t="n">
-        <v>16.66666666666671</v>
+        <v>20</v>
       </c>
       <c r="L62" t="n">
         <v>19.64999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K63" t="n">
-        <v>16.66666666666671</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>19.65999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K64" t="n">
-        <v>16.66666666666671</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
         <v>19.66999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K65" t="n">
-        <v>16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>19.67999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>3.499999999999989</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090908973</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>19.67999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>3.599999999999991</v>
       </c>
       <c r="K67" t="n">
-        <v>27.27272727272756</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L67" t="n">
         <v>19.69999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K68" t="n">
-        <v>9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>19.69999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111093</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L70" t="n">
         <v>19.69999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K71" t="n">
-        <v>25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>19.70999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K72" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>19.70999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K73" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>19.70999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L74" t="n">
         <v>19.69999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L75" t="n">
         <v>19.68999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571414</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>19.67999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>19.65999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>3.999999999999986</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>19.64999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K80" t="n">
-        <v>-25.00000000000011</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L80" t="n">
         <v>19.62999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K81" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L81" t="n">
         <v>19.60999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.285714285714</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L82" t="n">
         <v>19.59999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>4.29999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>-24.99999999999989</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L83" t="n">
         <v>19.57999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>4.399999999999991</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>19.57999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K85" t="n">
-        <v>-19.99999999999986</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L85" t="n">
         <v>19.57</v>
@@ -4614,7 +4636,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K86" t="n">
-        <v>-9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>19.57</v>
@@ -4665,7 +4687,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K87" t="n">
-        <v>-19.99999999999986</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L87" t="n">
         <v>19.57</v>
@@ -4716,7 +4738,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K88" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>19.56</v>
@@ -4767,7 +4789,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.11111111111085</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>19.56</v>
@@ -4818,7 +4840,7 @@
         <v>4.699999999999992</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L90" t="n">
         <v>19.57999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>4.79999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>19.59</v>
@@ -4920,7 +4942,7 @@
         <v>4.899999999999991</v>
       </c>
       <c r="K92" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>19.57999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>4.999999999999993</v>
       </c>
       <c r="K93" t="n">
-        <v>-7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>19.59</v>
@@ -5022,7 +5044,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>19.57999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.692307692307776</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L95" t="n">
         <v>19.57999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K96" t="n">
-        <v>-7.692307692307776</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L96" t="n">
         <v>19.57</v>
@@ -5226,7 +5248,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>-14.28571428571414</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L98" t="n">
         <v>19.56</v>
@@ -5277,7 +5299,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>-7.692307692307734</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L99" t="n">
         <v>19.55</v>
@@ -5328,7 +5350,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>19.53</v>
@@ -5532,7 +5554,7 @@
         <v>5.5</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>19.52</v>
@@ -5634,7 +5656,7 @@
         <v>5.5</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>19.52</v>
@@ -5685,7 +5707,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-20.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>19.5</v>
@@ -5736,7 +5758,7 @@
         <v>5.800000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L108" t="n">
         <v>19.51</v>
@@ -5787,7 +5809,7 @@
         <v>6.000000000000007</v>
       </c>
       <c r="K109" t="n">
-        <v>-14.28571428571436</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L109" t="n">
         <v>19.5</v>
@@ -5838,7 +5860,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.666666666666446</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L110" t="n">
         <v>19.51</v>
@@ -5889,7 +5911,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K111" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L111" t="n">
         <v>19.5</v>
@@ -5940,7 +5962,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L112" t="n">
         <v>19.48</v>
@@ -5991,7 +6013,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K113" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L113" t="n">
         <v>19.47</v>
@@ -6042,7 +6064,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K114" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L114" t="n">
         <v>19.46</v>
@@ -6093,7 +6115,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K115" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L115" t="n">
         <v>19.45</v>
@@ -6144,7 +6166,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K116" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>19.44</v>
@@ -6195,7 +6217,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K117" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>19.44</v>
@@ -6246,7 +6268,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K118" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>19.42000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L119" t="n">
         <v>19.42000000000001</v>
@@ -6347,9 +6369,7 @@
       <c r="J120" t="n">
         <v>6.400000000000013</v>
       </c>
-      <c r="K120" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>19.40000000000001</v>
       </c>
@@ -6398,9 +6418,7 @@
       <c r="J121" t="n">
         <v>6.400000000000013</v>
       </c>
-      <c r="K121" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>19.40000000000001</v>
       </c>
@@ -6450,7 +6468,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>19.41</v>
@@ -6501,7 +6519,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
         <v>19.42000000000001</v>
@@ -6552,7 +6570,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>19.43</v>
@@ -6603,7 +6621,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>19.44</v>
@@ -6654,7 +6672,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>19.45</v>
@@ -6705,7 +6723,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K127" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>19.46</v>
@@ -6756,7 +6774,7 @@
         <v>6.500000000000014</v>
       </c>
       <c r="K128" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
         <v>19.47</v>
@@ -6807,7 +6825,7 @@
         <v>6.600000000000016</v>
       </c>
       <c r="K129" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>19.49</v>
@@ -6858,7 +6876,7 @@
         <v>6.700000000000017</v>
       </c>
       <c r="K130" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>19.5</v>
@@ -6909,7 +6927,7 @@
         <v>6.800000000000018</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>19.5</v>
@@ -6960,7 +6978,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>19.5</v>
@@ -7011,7 +7029,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>19.5</v>
@@ -7062,7 +7080,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>19.5</v>
@@ -7113,7 +7131,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>19.5</v>
@@ -7164,7 +7182,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>19.5</v>
@@ -7215,7 +7233,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>19.5</v>
@@ -7266,7 +7284,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>19.5</v>
@@ -7317,7 +7335,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>19.49</v>
@@ -7368,7 +7386,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L140" t="n">
         <v>19.49</v>
@@ -7418,9 +7436,7 @@
       <c r="J141" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K141" t="n">
-        <v>20</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>19.5</v>
       </c>
@@ -7469,9 +7485,7 @@
       <c r="J142" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>19.5</v>
       </c>
@@ -7520,9 +7534,7 @@
       <c r="J143" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>19.5</v>
       </c>
@@ -7571,9 +7583,7 @@
       <c r="J144" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>19.5</v>
       </c>
@@ -7622,9 +7632,7 @@
       <c r="J145" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>19.5</v>
       </c>
@@ -7673,9 +7681,7 @@
       <c r="J146" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>19.5</v>
       </c>
@@ -7724,9 +7730,7 @@
       <c r="J147" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>19.5</v>
       </c>
@@ -7775,9 +7779,7 @@
       <c r="J148" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>19.5</v>
       </c>
@@ -7826,9 +7828,7 @@
       <c r="J149" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K149" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>19.5</v>
       </c>
@@ -7877,9 +7877,7 @@
       <c r="J150" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>19.5</v>
       </c>
@@ -7928,9 +7926,7 @@
       <c r="J151" t="n">
         <v>6.90000000000002</v>
       </c>
-      <c r="K151" t="n">
-        <v>100</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>19.5</v>
       </c>
@@ -8537,7 +8533,7 @@
         <v>7.40000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>19.59999999999999</v>
@@ -8588,7 +8584,7 @@
         <v>7.40000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>19.59999999999999</v>
@@ -8639,7 +8635,7 @@
         <v>7.40000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>19.59999999999999</v>
@@ -8690,7 +8686,7 @@
         <v>7.40000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>19.59999999999999</v>
@@ -8741,7 +8737,7 @@
         <v>7.40000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>19.59999999999999</v>
@@ -8792,7 +8788,7 @@
         <v>7.40000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>20.00000000000028</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L168" t="n">
         <v>19.59999999999999</v>
@@ -8843,7 +8839,7 @@
         <v>7.40000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>19.59</v>
@@ -8894,7 +8890,7 @@
         <v>7.500000000000018</v>
       </c>
       <c r="K170" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L170" t="n">
         <v>19.59999999999999</v>
@@ -8945,7 +8941,7 @@
         <v>7.500000000000018</v>
       </c>
       <c r="K171" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L171" t="n">
         <v>19.60999999999999</v>
@@ -8996,7 +8992,7 @@
         <v>7.500000000000018</v>
       </c>
       <c r="K172" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L172" t="n">
         <v>19.62999999999999</v>
@@ -9047,7 +9043,7 @@
         <v>7.500000000000018</v>
       </c>
       <c r="K173" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L173" t="n">
         <v>19.63999999999999</v>
@@ -9098,7 +9094,7 @@
         <v>7.500000000000018</v>
       </c>
       <c r="K174" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L174" t="n">
         <v>19.64999999999999</v>
@@ -9149,7 +9145,7 @@
         <v>7.500000000000018</v>
       </c>
       <c r="K175" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L175" t="n">
         <v>19.65999999999999</v>
@@ -9200,7 +9196,7 @@
         <v>7.500000000000018</v>
       </c>
       <c r="K176" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L176" t="n">
         <v>19.66999999999999</v>
@@ -9302,7 +9298,7 @@
         <v>7.700000000000014</v>
       </c>
       <c r="K178" t="n">
-        <v>14.28571428571414</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>19.67999999999999</v>
@@ -9404,7 +9400,7 @@
         <v>7.700000000000014</v>
       </c>
       <c r="K180" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>19.68999999999999</v>
@@ -9455,7 +9451,7 @@
         <v>7.700000000000014</v>
       </c>
       <c r="K181" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>19.68999999999999</v>
@@ -9506,7 +9502,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K182" t="n">
-        <v>20.00000000000057</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>19.67999999999999</v>
@@ -9557,7 +9553,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>19.66999999999999</v>
@@ -9608,7 +9604,7 @@
         <v>7.800000000000011</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>19.65999999999999</v>
@@ -9659,7 +9655,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K185" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>19.65999999999999</v>
@@ -9710,7 +9706,7 @@
         <v>7.900000000000009</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>19.65999999999999</v>
@@ -9761,7 +9757,7 @@
         <v>8.000000000000007</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>19.65999999999999</v>
@@ -9812,7 +9808,7 @@
         <v>8.000000000000007</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>19.64999999999999</v>
@@ -9863,7 +9859,7 @@
         <v>8.000000000000007</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>19.63999999999999</v>
@@ -9914,7 +9910,7 @@
         <v>8.000000000000007</v>
       </c>
       <c r="K190" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>19.62999999999999</v>
@@ -9965,7 +9961,7 @@
         <v>8.000000000000007</v>
       </c>
       <c r="K191" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>19.61999999999999</v>
@@ -10016,7 +10012,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>19.62999999999999</v>
@@ -10067,7 +10063,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>19.63999999999999</v>
@@ -10118,7 +10114,7 @@
         <v>8.200000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>19.63999999999999</v>
@@ -10169,7 +10165,7 @@
         <v>8.200000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L195" t="n">
         <v>19.62999999999999</v>
@@ -10220,7 +10216,7 @@
         <v>8.300000000000004</v>
       </c>
       <c r="K196" t="n">
-        <v>-25.00000000000033</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L196" t="n">
         <v>19.60999999999999</v>
@@ -10322,7 +10318,7 @@
         <v>8.500000000000007</v>
       </c>
       <c r="K198" t="n">
-        <v>-25.00000000000011</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L198" t="n">
         <v>19.59999999999999</v>
@@ -10373,7 +10369,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K199" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>19.59999999999999</v>
@@ -10424,7 +10420,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>19.59999999999999</v>
@@ -10475,7 +10471,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K201" t="n">
-        <v>-11.11111111111093</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L201" t="n">
         <v>19.59999999999999</v>
@@ -10526,7 +10522,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L202" t="n">
         <v>19.59</v>
@@ -10679,7 +10675,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K205" t="n">
-        <v>-14.285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>19.57999999999999</v>
@@ -10730,7 +10726,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K206" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>19.59</v>
@@ -10781,7 +10777,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>19.59</v>
@@ -10832,7 +10828,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L208" t="n">
         <v>19.59</v>
@@ -10883,7 +10879,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L209" t="n">
         <v>19.57999999999999</v>
@@ -10934,7 +10930,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>-14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L210" t="n">
         <v>19.57</v>
@@ -11036,7 +11032,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K212" t="n">
-        <v>-14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>19.57</v>
@@ -11087,7 +11083,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K213" t="n">
-        <v>-14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>19.57</v>
@@ -11240,7 +11236,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K216" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>19.57</v>
@@ -11291,7 +11287,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L217" t="n">
         <v>19.57</v>
@@ -11342,7 +11338,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K218" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L218" t="n">
         <v>19.57999999999999</v>
@@ -11393,7 +11389,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L219" t="n">
         <v>19.59</v>
@@ -11444,7 +11440,7 @@
         <v>8.900000000000009</v>
       </c>
       <c r="K220" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L220" t="n">
         <v>19.60999999999999</v>
@@ -11495,7 +11491,7 @@
         <v>8.900000000000009</v>
       </c>
       <c r="K221" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L221" t="n">
         <v>19.61999999999999</v>
@@ -11852,7 +11848,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K228" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>19.62999999999999</v>
@@ -11903,7 +11899,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K229" t="n">
-        <v>50.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>19.63999999999999</v>
@@ -11954,7 +11950,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K230" t="n">
-        <v>50.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>19.63999999999999</v>
@@ -12005,7 +12001,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K231" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L231" t="n">
         <v>19.63999999999999</v>
@@ -12056,7 +12052,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K232" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L232" t="n">
         <v>19.64999999999999</v>
@@ -12107,7 +12103,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K233" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L233" t="n">
         <v>19.65999999999999</v>
@@ -12158,7 +12154,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K234" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L234" t="n">
         <v>19.66999999999999</v>
@@ -12311,7 +12307,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>19.67999999999999</v>
@@ -12362,7 +12358,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>19.66999999999999</v>
@@ -12413,7 +12409,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>19.65999999999999</v>
@@ -12464,7 +12460,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L240" t="n">
         <v>19.64999999999999</v>
@@ -12515,7 +12511,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K241" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>19.63999999999999</v>
@@ -12566,7 +12562,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K242" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>19.63999999999999</v>
@@ -12617,7 +12613,7 @@
         <v>9.599999999999994</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L243" t="n">
         <v>19.62999999999999</v>
@@ -12770,7 +12766,7 @@
         <v>9.599999999999994</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>19.61999999999999</v>
@@ -12821,7 +12817,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K247" t="n">
-        <v>-14.28571428571472</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L247" t="n">
         <v>19.59999999999999</v>
@@ -12872,7 +12868,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K248" t="n">
-        <v>-33.33333333333373</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L248" t="n">
         <v>19.59</v>
@@ -12923,7 +12919,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K249" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>19.59</v>
@@ -12974,7 +12970,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K250" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>19.59</v>
@@ -13025,7 +13021,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K251" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L251" t="n">
         <v>19.59</v>
@@ -13076,7 +13072,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K252" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>19.57999999999999</v>
@@ -13127,7 +13123,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>19.57999999999999</v>
@@ -13178,7 +13174,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K254" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>19.57</v>
@@ -13229,7 +13225,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.28571428571458</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>19.56</v>
@@ -13280,7 +13276,7 @@
         <v>10</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>19.56</v>
@@ -13331,7 +13327,7 @@
         <v>10</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>19.57</v>
@@ -13586,7 +13582,7 @@
         <v>10.1</v>
       </c>
       <c r="K262" t="n">
-        <v>-33.33333333333294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>19.57</v>
@@ -13637,7 +13633,7 @@
         <v>10.1</v>
       </c>
       <c r="K263" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>19.56</v>
@@ -13688,7 +13684,7 @@
         <v>10.2</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>19.57</v>
@@ -13841,7 +13837,7 @@
         <v>10.3</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>19.57</v>
@@ -13892,7 +13888,7 @@
         <v>10.3</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>19.56</v>
@@ -13943,7 +13939,7 @@
         <v>10.3</v>
       </c>
       <c r="K269" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>19.55</v>
@@ -14045,7 +14041,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>19.55</v>
@@ -14096,7 +14092,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
         <v>19.55</v>
@@ -14147,7 +14143,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>19.55</v>
@@ -14198,7 +14194,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>19.55</v>
@@ -14249,7 +14245,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>19.55</v>
@@ -14300,7 +14296,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>19.55</v>
@@ -14351,7 +14347,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>19.56</v>
@@ -14402,7 +14398,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L278" t="n">
         <v>19.57</v>
@@ -14555,7 +14551,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>19.57</v>
@@ -14657,7 +14653,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K283" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>19.57999999999999</v>
@@ -14708,7 +14704,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>19.57</v>
@@ -14759,7 +14755,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>19.56</v>
@@ -14810,7 +14806,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>19.55</v>
@@ -14861,7 +14857,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>19.54</v>
@@ -14912,7 +14908,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>19.53</v>
@@ -14963,7 +14959,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>19.52</v>
@@ -15116,7 +15112,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L292" t="n">
         <v>19.48</v>
@@ -15167,7 +15163,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L293" t="n">
         <v>19.46</v>
@@ -15218,7 +15214,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>19.46</v>
@@ -15473,7 +15469,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>19.41</v>
@@ -15524,7 +15520,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>-42.85714285714256</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L300" t="n">
         <v>19.40000000000001</v>
@@ -15575,7 +15571,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>19.40000000000001</v>
@@ -15626,7 +15622,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>19.40000000000001</v>
@@ -15677,7 +15673,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>-33.33333333333373</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L303" t="n">
         <v>19.40000000000001</v>
@@ -15728,7 +15724,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L304" t="n">
         <v>19.40000000000001</v>
@@ -15779,7 +15775,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>19.40000000000001</v>
@@ -15830,7 +15826,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>19.40000000000001</v>
@@ -15881,7 +15877,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>19.40000000000001</v>
@@ -15932,7 +15928,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>19.40000000000001</v>
@@ -15983,7 +15979,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>-14.28571428571443</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L309" t="n">
         <v>19.40000000000001</v>
@@ -16034,7 +16030,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L310" t="n">
         <v>19.40000000000001</v>
@@ -16187,7 +16183,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>19.41</v>
@@ -16238,7 +16234,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>19.40000000000001</v>
@@ -16289,7 +16285,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K315" t="n">
-        <v>11.11111111111129</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L315" t="n">
         <v>19.41</v>
@@ -16340,7 +16336,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>11.11111111111129</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L316" t="n">
         <v>19.42000000000001</v>
@@ -16391,7 +16387,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>11.11111111111129</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L317" t="n">
         <v>19.43</v>
@@ -16442,7 +16438,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>11.11111111111129</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L318" t="n">
         <v>19.44</v>
@@ -16493,7 +16489,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>11.11111111111129</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L319" t="n">
         <v>19.45</v>
@@ -16544,7 +16540,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>19.47</v>
@@ -16595,7 +16591,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K321" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>19.48</v>
@@ -16646,7 +16642,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K322" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>19.49</v>
@@ -16697,7 +16693,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K323" t="n">
-        <v>14.28571428571443</v>
+        <v>100</v>
       </c>
       <c r="L323" t="n">
         <v>19.49</v>
@@ -16747,9 +16743,7 @@
       <c r="J324" t="n">
         <v>12.10000000000002</v>
       </c>
-      <c r="K324" t="n">
-        <v>0</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>19.5</v>
       </c>
@@ -16798,9 +16792,7 @@
       <c r="J325" t="n">
         <v>12.10000000000002</v>
       </c>
-      <c r="K325" t="n">
-        <v>20.00000000000028</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>19.5</v>
       </c>
@@ -16849,9 +16841,7 @@
       <c r="J326" t="n">
         <v>12.10000000000002</v>
       </c>
-      <c r="K326" t="n">
-        <v>20.00000000000028</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>19.5</v>
       </c>
@@ -16900,9 +16890,7 @@
       <c r="J327" t="n">
         <v>12.10000000000002</v>
       </c>
-      <c r="K327" t="n">
-        <v>20.00000000000028</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>19.5</v>
       </c>
@@ -16951,9 +16939,7 @@
       <c r="J328" t="n">
         <v>12.10000000000002</v>
       </c>
-      <c r="K328" t="n">
-        <v>20.00000000000028</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>19.5</v>
       </c>
@@ -17003,7 +16989,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L329" t="n">
         <v>19.49</v>
@@ -17054,7 +17040,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K330" t="n">
-        <v>19.99999999999943</v>
+        <v>-100</v>
       </c>
       <c r="L330" t="n">
         <v>19.48</v>
@@ -17105,7 +17091,7 @@
         <v>12.30000000000002</v>
       </c>
       <c r="K331" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>19.48</v>
@@ -17156,7 +17142,7 @@
         <v>12.30000000000002</v>
       </c>
       <c r="K332" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>19.48</v>
@@ -17207,7 +17193,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K333" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>19.47</v>
@@ -17258,7 +17244,7 @@
         <v>12.50000000000002</v>
       </c>
       <c r="K334" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>19.47</v>
@@ -17462,7 +17448,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K338" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L338" t="n">
         <v>19.5</v>
@@ -17513,7 +17499,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K339" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L339" t="n">
         <v>19.52</v>
@@ -17564,7 +17550,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K340" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>19.54</v>
@@ -17615,7 +17601,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K341" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>19.55</v>
@@ -17666,7 +17652,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K342" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L342" t="n">
         <v>19.56</v>
@@ -17717,7 +17703,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K343" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L343" t="n">
         <v>19.57999999999999</v>
@@ -17768,7 +17754,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K344" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L344" t="n">
         <v>19.59</v>
@@ -17818,9 +17804,7 @@
       <c r="J345" t="n">
         <v>12.60000000000002</v>
       </c>
-      <c r="K345" t="n">
-        <v>20</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>19.59999999999999</v>
       </c>
@@ -17870,7 +17854,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K346" t="n">
-        <v>33.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L346" t="n">
         <v>19.60999999999999</v>
@@ -17921,7 +17905,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K347" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>19.60999999999999</v>
@@ -17972,7 +17956,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L348" t="n">
         <v>19.59999999999999</v>
@@ -18023,7 +18007,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K349" t="n">
-        <v>14.28571428571443</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L349" t="n">
         <v>19.59</v>
@@ -18074,7 +18058,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K350" t="n">
-        <v>14.28571428571443</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L350" t="n">
         <v>19.57999999999999</v>
@@ -18125,7 +18109,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L351" t="n">
         <v>19.57</v>
@@ -18176,7 +18160,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L352" t="n">
         <v>19.56</v>
@@ -18227,7 +18211,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K353" t="n">
-        <v>20.00000000000028</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L353" t="n">
         <v>19.55</v>
@@ -18278,7 +18262,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L354" t="n">
         <v>19.54</v>
@@ -18329,7 +18313,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L355" t="n">
         <v>19.53</v>
@@ -18431,7 +18415,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K357" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>19.51</v>
@@ -18482,7 +18466,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K358" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>19.51</v>
@@ -18533,7 +18517,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K359" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>19.51</v>
@@ -18584,7 +18568,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K360" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>19.51</v>
@@ -18635,7 +18619,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K361" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>19.51</v>
@@ -18686,7 +18670,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K362" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>19.51</v>
@@ -18737,7 +18721,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K363" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>19.51</v>
@@ -18788,7 +18772,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K364" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>19.51</v>
@@ -18839,7 +18823,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K365" t="n">
-        <v>-20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L365" t="n">
         <v>19.51</v>
@@ -18890,7 +18874,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K366" t="n">
-        <v>-59.99999999999972</v>
+        <v>-100</v>
       </c>
       <c r="L366" t="n">
         <v>19.49</v>
@@ -18941,7 +18925,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K367" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L367" t="n">
         <v>19.48</v>
@@ -19196,7 +19180,7 @@
         <v>13.40000000000003</v>
       </c>
       <c r="K372" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>19.47</v>
@@ -19349,7 +19333,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K375" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>19.46</v>
@@ -19400,7 +19384,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K376" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>19.46</v>
@@ -19451,7 +19435,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K377" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>19.46</v>
@@ -19502,7 +19486,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K378" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L378" t="n">
         <v>19.45</v>
@@ -19553,7 +19537,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K379" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>19.44</v>
@@ -19604,7 +19588,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K380" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L380" t="n">
         <v>19.43</v>
@@ -19655,7 +19639,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K381" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>19.42000000000001</v>
@@ -19808,7 +19792,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>19.43</v>
@@ -19859,7 +19843,7 @@
         <v>13.80000000000003</v>
       </c>
       <c r="K385" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>19.43</v>
@@ -19910,7 +19894,7 @@
         <v>13.90000000000003</v>
       </c>
       <c r="K386" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L386" t="n">
         <v>19.44</v>
@@ -20012,7 +19996,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K388" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>19.44</v>
@@ -20063,7 +20047,7 @@
         <v>14.10000000000004</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L389" t="n">
         <v>19.45</v>
@@ -20114,7 +20098,7 @@
         <v>14.10000000000004</v>
       </c>
       <c r="K390" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L390" t="n">
         <v>19.46</v>
@@ -20165,7 +20149,7 @@
         <v>14.20000000000004</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L391" t="n">
         <v>19.46</v>
@@ -20216,7 +20200,7 @@
         <v>14.20000000000004</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L392" t="n">
         <v>19.45</v>
@@ -20267,7 +20251,7 @@
         <v>14.20000000000004</v>
       </c>
       <c r="K393" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L393" t="n">
         <v>19.44</v>
@@ -20318,7 +20302,7 @@
         <v>14.30000000000004</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L394" t="n">
         <v>19.44</v>
@@ -20369,7 +20353,7 @@
         <v>14.30000000000004</v>
       </c>
       <c r="K395" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>19.45</v>
@@ -20420,7 +20404,7 @@
         <v>14.30000000000004</v>
       </c>
       <c r="K396" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L396" t="n">
         <v>19.45</v>
@@ -20522,7 +20506,7 @@
         <v>14.40000000000004</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>19.45</v>
@@ -20573,7 +20557,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K399" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>19.45</v>
@@ -20624,7 +20608,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K400" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L400" t="n">
         <v>19.45</v>
@@ -20675,7 +20659,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K401" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>19.46</v>
@@ -20726,7 +20710,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>19.47</v>
@@ -20879,7 +20863,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>19.47</v>
@@ -20930,7 +20914,7 @@
         <v>14.80000000000005</v>
       </c>
       <c r="K406" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L406" t="n">
         <v>19.48</v>
@@ -20981,7 +20965,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K407" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L407" t="n">
         <v>19.49</v>
@@ -21032,7 +21016,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K408" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>19.5</v>
@@ -21185,7 +21169,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K411" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>19.5</v>
@@ -21236,7 +21220,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K412" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>19.5</v>
@@ -21287,7 +21271,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K413" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>19.5</v>
@@ -21338,7 +21322,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K414" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L414" t="n">
         <v>19.5</v>
@@ -21389,7 +21373,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L415" t="n">
         <v>19.51</v>
@@ -21439,9 +21423,7 @@
       <c r="J416" t="n">
         <v>14.90000000000005</v>
       </c>
-      <c r="K416" t="n">
-        <v>0</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>19.5</v>
       </c>
@@ -21490,9 +21472,7 @@
       <c r="J417" t="n">
         <v>14.90000000000005</v>
       </c>
-      <c r="K417" t="n">
-        <v>20</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>19.5</v>
       </c>
@@ -21541,9 +21521,7 @@
       <c r="J418" t="n">
         <v>14.90000000000005</v>
       </c>
-      <c r="K418" t="n">
-        <v>20</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>19.5</v>
       </c>
@@ -21592,9 +21570,7 @@
       <c r="J419" t="n">
         <v>14.90000000000005</v>
       </c>
-      <c r="K419" t="n">
-        <v>0</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>19.5</v>
       </c>
@@ -21643,9 +21619,7 @@
       <c r="J420" t="n">
         <v>14.90000000000005</v>
       </c>
-      <c r="K420" t="n">
-        <v>0</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>19.5</v>
       </c>
@@ -21695,7 +21669,7 @@
         <v>15.00000000000005</v>
       </c>
       <c r="K421" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L421" t="n">
         <v>19.51</v>
@@ -21746,7 +21720,7 @@
         <v>15.00000000000005</v>
       </c>
       <c r="K422" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L422" t="n">
         <v>19.52</v>
@@ -21797,7 +21771,7 @@
         <v>15.00000000000005</v>
       </c>
       <c r="K423" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L423" t="n">
         <v>19.53</v>
@@ -21848,7 +21822,7 @@
         <v>15.00000000000005</v>
       </c>
       <c r="K424" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L424" t="n">
         <v>19.54</v>
@@ -21899,7 +21873,7 @@
         <v>15.00000000000005</v>
       </c>
       <c r="K425" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L425" t="n">
         <v>19.55</v>
@@ -21950,7 +21924,7 @@
         <v>15.00000000000005</v>
       </c>
       <c r="K426" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L426" t="n">
         <v>19.56</v>
@@ -22154,7 +22128,7 @@
         <v>15.30000000000005</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>19.57</v>
@@ -22205,7 +22179,7 @@
         <v>15.30000000000005</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>19.56</v>
@@ -22256,7 +22230,7 @@
         <v>15.30000000000005</v>
       </c>
       <c r="K432" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L432" t="n">
         <v>19.55</v>
@@ -22307,7 +22281,7 @@
         <v>15.40000000000006</v>
       </c>
       <c r="K433" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L433" t="n">
         <v>19.53</v>
@@ -22358,7 +22332,7 @@
         <v>15.50000000000006</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L434" t="n">
         <v>19.52</v>
@@ -22409,7 +22383,7 @@
         <v>15.50000000000006</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L435" t="n">
         <v>19.51</v>
@@ -22511,7 +22485,7 @@
         <v>15.60000000000006</v>
       </c>
       <c r="K437" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L437" t="n">
         <v>19.49</v>
@@ -22613,7 +22587,7 @@
         <v>15.80000000000006</v>
       </c>
       <c r="K439" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L439" t="n">
         <v>19.47</v>
@@ -22664,7 +22638,7 @@
         <v>15.80000000000006</v>
       </c>
       <c r="K440" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L440" t="n">
         <v>19.46</v>
@@ -22715,7 +22689,7 @@
         <v>15.90000000000006</v>
       </c>
       <c r="K441" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>19.46</v>
@@ -22766,7 +22740,7 @@
         <v>15.90000000000006</v>
       </c>
       <c r="K442" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L442" t="n">
         <v>19.46</v>
@@ -22868,7 +22842,7 @@
         <v>16.10000000000007</v>
       </c>
       <c r="K444" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>19.46</v>
@@ -22919,7 +22893,7 @@
         <v>16.20000000000007</v>
       </c>
       <c r="K445" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L445" t="n">
         <v>19.45</v>
@@ -22970,7 +22944,7 @@
         <v>16.20000000000007</v>
       </c>
       <c r="K446" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>19.44</v>
@@ -23021,7 +22995,7 @@
         <v>16.20000000000007</v>
       </c>
       <c r="K447" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L447" t="n">
         <v>19.44</v>
@@ -23072,7 +23046,7 @@
         <v>16.20000000000007</v>
       </c>
       <c r="K448" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>19.43</v>
@@ -23123,7 +23097,7 @@
         <v>16.30000000000007</v>
       </c>
       <c r="K449" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L449" t="n">
         <v>19.44</v>

--- a/BackTest/2019-10-15 BackTest TRX.xlsx
+++ b/BackTest/2019-10-15 BackTest TRX.xlsx
@@ -451,17 +451,13 @@
         <v>19.02666666666665</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>19</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,16 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
         <v>19</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -539,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="K4" t="n">
         <v>19</v>
@@ -587,7 +579,11 @@
       <c r="K5" t="n">
         <v>19</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,452 +611,384 @@
         <v>19.02999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3679.4022</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.02833333333331</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="C8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>177413</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.02666666666665</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>53585.5394</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.02666666666665</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1909.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.02499999999998</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>221011.9055</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19.02499999999998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5789.919</v>
+      </c>
+      <c r="G12" t="n">
+        <v>19.02333333333332</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>292.36842105</v>
+      </c>
+      <c r="G13" t="n">
+        <v>19.02333333333332</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8032.3179</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19.02166666666665</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>42105.2631</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.01999999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>19</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3679.4022</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19.02833333333331</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>19</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="C16" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>51848.8947</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19.02166666666665</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>19</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19</v>
-      </c>
-      <c r="E8" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>177413</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19.02666666666665</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19</v>
-      </c>
-      <c r="K8" t="n">
-        <v>19</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19</v>
-      </c>
-      <c r="E9" t="n">
-        <v>19</v>
-      </c>
-      <c r="F9" t="n">
-        <v>53585.5394</v>
-      </c>
-      <c r="G9" t="n">
-        <v>19.02666666666665</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>19</v>
-      </c>
-      <c r="K9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1909.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>19.02499999999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>19</v>
-      </c>
-      <c r="K10" t="n">
-        <v>19</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19</v>
-      </c>
-      <c r="F11" t="n">
-        <v>221011.9055</v>
-      </c>
-      <c r="G11" t="n">
-        <v>19.02499999999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>19</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19</v>
-      </c>
-      <c r="E12" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5789.919</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19.02333333333332</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>19</v>
-      </c>
-      <c r="K12" t="n">
-        <v>19</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19</v>
-      </c>
-      <c r="F13" t="n">
-        <v>292.36842105</v>
-      </c>
-      <c r="G13" t="n">
-        <v>19.02333333333332</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>19</v>
-      </c>
-      <c r="K13" t="n">
-        <v>19</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8032.3179</v>
-      </c>
-      <c r="G14" t="n">
-        <v>19.02166666666665</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>19</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>19</v>
-      </c>
-      <c r="C15" t="n">
-        <v>19</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19</v>
-      </c>
-      <c r="F15" t="n">
-        <v>42105.2631</v>
-      </c>
-      <c r="G15" t="n">
-        <v>19.01999999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>19</v>
-      </c>
-      <c r="K15" t="n">
-        <v>19</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>19</v>
-      </c>
-      <c r="C16" t="n">
-        <v>19</v>
-      </c>
-      <c r="D16" t="n">
-        <v>19</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19</v>
-      </c>
-      <c r="F16" t="n">
-        <v>51848.8947</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19.02166666666665</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>19</v>
-      </c>
-      <c r="K16" t="n">
-        <v>19</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1094,16 +1022,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K17" t="n">
         <v>19</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,20 +1055,18 @@
         <v>19.02499999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>19</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1174,20 +1096,18 @@
         <v>19.02833333333331</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>19</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1217,22 +1137,14 @@
         <v>19.02999999999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>19</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1172,14 @@
         <v>19.02999999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1309,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>19</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,14 +1248,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>19</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1391,14 +1283,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>19</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,14 +1318,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>19</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1473,14 +1353,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>19</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1388,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>19</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1555,14 +1423,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>19</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1596,14 +1458,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>19</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1634,17 +1490,11 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>19</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1675,17 +1525,11 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>19</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1716,17 +1560,11 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>19</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1760,14 +1598,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>19</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1801,14 +1633,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>19</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1842,14 +1668,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>19</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1703,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>19</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1924,14 +1738,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>19</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1773,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>19</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2006,14 +1808,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>19</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2047,14 +1843,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>19</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2088,14 +1878,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>19</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2129,14 +1913,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>19</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +1948,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>19</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1983,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>19</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +2018,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>19</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +2053,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>19</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2088,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>19</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2375,14 +2123,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>19</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2158,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>19</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2457,14 +2193,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>19</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2495,19 +2225,13 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>19</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>1.021315789473684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2536,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2571,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2606,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2641,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2676,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2746,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2781,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2816,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2851,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest TRX.xlsx
+++ b/BackTest/2019-10-15 BackTest TRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M428"/>
+  <dimension ref="A1:M429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>109103.508</v>
+        <v>300</v>
       </c>
       <c r="G2" t="n">
         <v>19.02666666666665</v>
@@ -468,35 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>1295.1895</v>
+        <v>109103.508</v>
       </c>
       <c r="G3" t="n">
-        <v>19.02833333333331</v>
+        <v>19.02666666666665</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -507,153 +503,155 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F4" t="n">
-        <v>470476.1578</v>
+        <v>1295.1895</v>
       </c>
       <c r="G4" t="n">
         <v>19.02833333333331</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>470476.1578</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.02833333333331</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>19.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>19</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>82448.7684</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.02833333333331</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>19</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19</v>
-      </c>
-      <c r="F5" t="n">
-        <v>82448.7684</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19.02833333333331</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19</v>
-      </c>
-      <c r="K5" t="n">
-        <v>19</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15405.4973</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.02999999999998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15405.4973</v>
-      </c>
-      <c r="G6" t="n">
-        <v>19.02999999999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3679.4022</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19.02833333333331</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -663,22 +661,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C8" t="n">
         <v>18.9</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E8" t="n">
         <v>18.9</v>
       </c>
       <c r="F8" t="n">
-        <v>177413</v>
+        <v>3679.4022</v>
       </c>
       <c r="G8" t="n">
-        <v>19.02666666666665</v>
+        <v>19.02833333333331</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -701,16 +699,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D9" t="n">
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F9" t="n">
-        <v>53585.5394</v>
+        <v>177413</v>
       </c>
       <c r="G9" t="n">
         <v>19.02666666666665</v>
@@ -745,10 +743,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>1909.2</v>
+        <v>53585.5394</v>
       </c>
       <c r="G10" t="n">
-        <v>19.02499999999998</v>
+        <v>19.02666666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -780,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>221011.9055</v>
+        <v>1909.2</v>
       </c>
       <c r="G11" t="n">
         <v>19.02499999999998</v>
@@ -806,19 +804,19 @@
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>5789.919</v>
+        <v>221011.9055</v>
       </c>
       <c r="G12" t="n">
-        <v>19.02333333333332</v>
+        <v>19.02499999999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -841,16 +839,16 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D13" t="n">
         <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F13" t="n">
-        <v>292.36842105</v>
+        <v>5789.919</v>
       </c>
       <c r="G13" t="n">
         <v>19.02333333333332</v>
@@ -873,35 +871,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>8032.3179</v>
+        <v>292.36842105</v>
       </c>
       <c r="G14" t="n">
-        <v>19.02166666666665</v>
+        <v>19.02333333333332</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>19</v>
-      </c>
-      <c r="K14" t="n">
-        <v>19</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -912,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F15" t="n">
-        <v>42105.2631</v>
+        <v>8032.3179</v>
       </c>
       <c r="G15" t="n">
-        <v>19.01999999999999</v>
+        <v>19.02166666666665</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>19</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -967,28 +953,20 @@
         <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>51848.8947</v>
+        <v>42105.2631</v>
       </c>
       <c r="G16" t="n">
-        <v>19.02166666666665</v>
+        <v>19.01999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>19</v>
-      </c>
-      <c r="K16" t="n">
-        <v>19</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -998,22 +976,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>523.56020942</v>
+        <v>51848.8947</v>
       </c>
       <c r="G17" t="n">
-        <v>19.02333333333332</v>
+        <v>19.02166666666665</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1049,10 +1027,10 @@
         <v>19.1</v>
       </c>
       <c r="F18" t="n">
-        <v>157.06806282</v>
+        <v>523.56020942</v>
       </c>
       <c r="G18" t="n">
-        <v>19.02499999999998</v>
+        <v>19.02333333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1090,18 +1068,20 @@
         <v>19.1</v>
       </c>
       <c r="F19" t="n">
-        <v>86200</v>
+        <v>157.06806282</v>
       </c>
       <c r="G19" t="n">
-        <v>19.02833333333331</v>
+        <v>19.02499999999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>19.1</v>
+      </c>
       <c r="K19" t="n">
         <v>19</v>
       </c>
@@ -1131,10 +1111,10 @@
         <v>19.1</v>
       </c>
       <c r="F20" t="n">
-        <v>407518.0822</v>
+        <v>86200</v>
       </c>
       <c r="G20" t="n">
-        <v>19.02999999999998</v>
+        <v>19.02833333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1166,19 +1146,23 @@
         <v>19.1</v>
       </c>
       <c r="F21" t="n">
-        <v>158072.4545</v>
+        <v>407518.0822</v>
       </c>
       <c r="G21" t="n">
         <v>19.02999999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19.1</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1201,10 +1185,10 @@
         <v>19.1</v>
       </c>
       <c r="F22" t="n">
-        <v>308695.8498</v>
+        <v>158072.4545</v>
       </c>
       <c r="G22" t="n">
-        <v>19.03166666666664</v>
+        <v>19.02999999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1213,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1236,10 +1226,10 @@
         <v>19.1</v>
       </c>
       <c r="F23" t="n">
-        <v>835.8782</v>
+        <v>308695.8498</v>
       </c>
       <c r="G23" t="n">
-        <v>19.03333333333331</v>
+        <v>19.03166666666664</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1248,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1259,22 +1255,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>835.8782</v>
       </c>
       <c r="G24" t="n">
-        <v>19.03499999999998</v>
+        <v>19.03333333333331</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1294,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C25" t="n">
         <v>19.2</v>
@@ -1303,13 +1299,13 @@
         <v>19.2</v>
       </c>
       <c r="E25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F25" t="n">
-        <v>105046.302</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>19.03666666666664</v>
+        <v>19.03499999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1329,7 +1325,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C26" t="n">
         <v>19.2</v>
@@ -1338,13 +1334,13 @@
         <v>19.2</v>
       </c>
       <c r="E26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F26" t="n">
-        <v>578863.3725000001</v>
+        <v>105046.302</v>
       </c>
       <c r="G26" t="n">
-        <v>19.03833333333331</v>
+        <v>19.03666666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1364,22 +1360,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F27" t="n">
-        <v>516811.0383</v>
+        <v>578863.3725000001</v>
       </c>
       <c r="G27" t="n">
-        <v>19.04166666666665</v>
+        <v>19.03833333333331</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1399,22 +1395,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C28" t="n">
         <v>19.3</v>
       </c>
       <c r="D28" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E28" t="n">
         <v>19.3</v>
       </c>
       <c r="F28" t="n">
-        <v>2814.8843</v>
+        <v>516811.0383</v>
       </c>
       <c r="G28" t="n">
-        <v>19.04499999999998</v>
+        <v>19.04166666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1437,19 +1433,19 @@
         <v>19.4</v>
       </c>
       <c r="C29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D29" t="n">
         <v>19.4</v>
       </c>
       <c r="E29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F29" t="n">
-        <v>12887.8608</v>
+        <v>2814.8843</v>
       </c>
       <c r="G29" t="n">
-        <v>19.04999999999999</v>
+        <v>19.04499999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1472,25 +1468,25 @@
         <v>19.4</v>
       </c>
       <c r="C30" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D30" t="n">
         <v>19.4</v>
       </c>
       <c r="E30" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F30" t="n">
-        <v>840126.4272</v>
+        <v>12887.8608</v>
       </c>
       <c r="G30" t="n">
-        <v>19.05499999999999</v>
+        <v>19.04999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1504,28 +1500,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C31" t="n">
         <v>19.3</v>
       </c>
       <c r="D31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E31" t="n">
         <v>19.3</v>
       </c>
       <c r="F31" t="n">
-        <v>119217.9456</v>
+        <v>840126.4272</v>
       </c>
       <c r="G31" t="n">
-        <v>19.05999999999998</v>
+        <v>19.05499999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1539,22 +1535,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C32" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D32" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E32" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F32" t="n">
-        <v>378348.7556</v>
+        <v>119217.9456</v>
       </c>
       <c r="G32" t="n">
-        <v>19.06499999999999</v>
+        <v>19.05999999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1577,25 +1573,25 @@
         <v>19.4</v>
       </c>
       <c r="C33" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D33" t="n">
         <v>19.4</v>
       </c>
       <c r="E33" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="F33" t="n">
-        <v>446161.4459</v>
+        <v>378348.7556</v>
       </c>
       <c r="G33" t="n">
-        <v>19.06833333333332</v>
+        <v>19.06499999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1618,19 +1614,19 @@
         <v>19.4</v>
       </c>
       <c r="E34" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F34" t="n">
-        <v>23764.2877</v>
+        <v>446161.4459</v>
       </c>
       <c r="G34" t="n">
-        <v>19.07166666666665</v>
+        <v>19.06833333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1644,28 +1640,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C35" t="n">
         <v>19.3</v>
       </c>
       <c r="D35" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E35" t="n">
         <v>19.3</v>
       </c>
       <c r="F35" t="n">
-        <v>33.915</v>
+        <v>23764.2877</v>
       </c>
       <c r="G35" t="n">
-        <v>19.07499999999999</v>
+        <v>19.07166666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1679,22 +1675,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C36" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D36" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E36" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F36" t="n">
-        <v>21758.0927</v>
+        <v>33.915</v>
       </c>
       <c r="G36" t="n">
-        <v>19.07999999999999</v>
+        <v>19.07499999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,22 +1710,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C37" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D37" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E37" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F37" t="n">
-        <v>3411.7324</v>
+        <v>21758.0927</v>
       </c>
       <c r="G37" t="n">
-        <v>19.08499999999999</v>
+        <v>19.07999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1749,22 +1745,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C38" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D38" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E38" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F38" t="n">
-        <v>62400</v>
+        <v>3411.7324</v>
       </c>
       <c r="G38" t="n">
-        <v>19.09166666666666</v>
+        <v>19.08499999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1787,19 +1783,19 @@
         <v>19.4</v>
       </c>
       <c r="C39" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D39" t="n">
         <v>19.4</v>
       </c>
       <c r="E39" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F39" t="n">
-        <v>221181.2286</v>
+        <v>62400</v>
       </c>
       <c r="G39" t="n">
-        <v>19.09666666666666</v>
+        <v>19.09166666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1822,19 +1818,19 @@
         <v>19.4</v>
       </c>
       <c r="C40" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D40" t="n">
         <v>19.4</v>
       </c>
       <c r="E40" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F40" t="n">
-        <v>109872.9999</v>
+        <v>221181.2286</v>
       </c>
       <c r="G40" t="n">
-        <v>19.10333333333333</v>
+        <v>19.09666666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1866,10 +1862,10 @@
         <v>19.4</v>
       </c>
       <c r="F41" t="n">
-        <v>1657025.0755</v>
+        <v>109872.9999</v>
       </c>
       <c r="G41" t="n">
-        <v>19.11</v>
+        <v>19.10333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1892,19 +1888,19 @@
         <v>19.4</v>
       </c>
       <c r="C42" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D42" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E42" t="n">
         <v>19.4</v>
       </c>
       <c r="F42" t="n">
-        <v>6916.1971</v>
+        <v>1657025.0755</v>
       </c>
       <c r="G42" t="n">
-        <v>19.11999999999999</v>
+        <v>19.11</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1924,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C43" t="n">
         <v>19.5</v>
@@ -1933,13 +1929,13 @@
         <v>19.5</v>
       </c>
       <c r="E43" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F43" t="n">
-        <v>23767.2307</v>
+        <v>6916.1971</v>
       </c>
       <c r="G43" t="n">
-        <v>19.12833333333333</v>
+        <v>19.11999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1971,10 +1967,10 @@
         <v>19.5</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>23767.2307</v>
       </c>
       <c r="G44" t="n">
-        <v>19.13666666666666</v>
+        <v>19.12833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2006,10 +2002,10 @@
         <v>19.5</v>
       </c>
       <c r="F45" t="n">
-        <v>44800</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>19.14499999999999</v>
+        <v>19.13666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2032,19 +2028,19 @@
         <v>19.5</v>
       </c>
       <c r="C46" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D46" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E46" t="n">
         <v>19.5</v>
       </c>
       <c r="F46" t="n">
-        <v>300985.8013</v>
+        <v>44800</v>
       </c>
       <c r="G46" t="n">
-        <v>19.15333333333333</v>
+        <v>19.14499999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2067,19 +2063,19 @@
         <v>19.5</v>
       </c>
       <c r="C47" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D47" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E47" t="n">
         <v>19.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1531.1625</v>
+        <v>300985.8013</v>
       </c>
       <c r="G47" t="n">
-        <v>19.15999999999999</v>
+        <v>19.15333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2099,22 +2095,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C48" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D48" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E48" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F48" t="n">
-        <v>373.7755</v>
+        <v>1531.1625</v>
       </c>
       <c r="G48" t="n">
-        <v>19.16833333333333</v>
+        <v>19.15999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2137,19 +2133,19 @@
         <v>19.6</v>
       </c>
       <c r="C49" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D49" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E49" t="n">
         <v>19.6</v>
       </c>
       <c r="F49" t="n">
-        <v>486213.7668</v>
+        <v>373.7755</v>
       </c>
       <c r="G49" t="n">
-        <v>19.17833333333333</v>
+        <v>19.16833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2172,19 +2168,19 @@
         <v>19.6</v>
       </c>
       <c r="C50" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D50" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E50" t="n">
         <v>19.6</v>
       </c>
       <c r="F50" t="n">
-        <v>258747.7345</v>
+        <v>486213.7668</v>
       </c>
       <c r="G50" t="n">
-        <v>19.18833333333333</v>
+        <v>19.17833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2207,19 +2203,19 @@
         <v>19.6</v>
       </c>
       <c r="C51" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D51" t="n">
         <v>19.6</v>
       </c>
       <c r="E51" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F51" t="n">
-        <v>18697.1095</v>
+        <v>258747.7345</v>
       </c>
       <c r="G51" t="n">
-        <v>19.195</v>
+        <v>19.18833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2242,19 +2238,19 @@
         <v>19.6</v>
       </c>
       <c r="C52" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D52" t="n">
         <v>19.6</v>
       </c>
       <c r="E52" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F52" t="n">
-        <v>16.2244</v>
+        <v>18697.1095</v>
       </c>
       <c r="G52" t="n">
-        <v>19.20499999999999</v>
+        <v>19.195</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2286,10 +2282,10 @@
         <v>19.6</v>
       </c>
       <c r="F53" t="n">
-        <v>281742.3315</v>
+        <v>16.2244</v>
       </c>
       <c r="G53" t="n">
-        <v>19.21499999999999</v>
+        <v>19.20499999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2321,10 +2317,10 @@
         <v>19.6</v>
       </c>
       <c r="F54" t="n">
-        <v>110816.6629</v>
+        <v>281742.3315</v>
       </c>
       <c r="G54" t="n">
-        <v>19.22499999999999</v>
+        <v>19.21499999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2344,7 +2340,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C55" t="n">
         <v>19.6</v>
@@ -2353,13 +2349,13 @@
         <v>19.6</v>
       </c>
       <c r="E55" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F55" t="n">
-        <v>230712.5276</v>
+        <v>110816.6629</v>
       </c>
       <c r="G55" t="n">
-        <v>19.23499999999999</v>
+        <v>19.22499999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2379,22 +2375,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="C56" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D56" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E56" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="F56" t="n">
-        <v>100000</v>
+        <v>230712.5276</v>
       </c>
       <c r="G56" t="n">
-        <v>19.24666666666666</v>
+        <v>19.23499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2414,22 +2410,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C57" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D57" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E57" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F57" t="n">
-        <v>394008.51</v>
+        <v>100000</v>
       </c>
       <c r="G57" t="n">
-        <v>19.25666666666666</v>
+        <v>19.24666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2449,22 +2445,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C58" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D58" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E58" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>394008.51</v>
       </c>
       <c r="G58" t="n">
-        <v>19.26833333333332</v>
+        <v>19.25666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2496,10 +2492,10 @@
         <v>19.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1233393.4464</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>19.27999999999999</v>
+        <v>19.26833333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2519,22 +2515,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="C60" t="n">
         <v>19.7</v>
       </c>
       <c r="D60" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E60" t="n">
         <v>19.7</v>
       </c>
       <c r="F60" t="n">
-        <v>325303.5116</v>
+        <v>1233393.4464</v>
       </c>
       <c r="G60" t="n">
-        <v>19.29166666666666</v>
+        <v>19.27999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2554,22 +2550,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="C61" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D61" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="E61" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F61" t="n">
-        <v>645476.3561</v>
+        <v>325303.5116</v>
       </c>
       <c r="G61" t="n">
-        <v>19.30166666666666</v>
+        <v>19.29166666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2592,7 +2588,7 @@
         <v>19.6</v>
       </c>
       <c r="C62" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D62" t="n">
         <v>19.7</v>
@@ -2601,10 +2597,10 @@
         <v>19.6</v>
       </c>
       <c r="F62" t="n">
-        <v>197849.6412</v>
+        <v>645476.3561</v>
       </c>
       <c r="G62" t="n">
-        <v>19.31333333333333</v>
+        <v>19.30166666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2624,7 +2620,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C63" t="n">
         <v>19.7</v>
@@ -2633,13 +2629,13 @@
         <v>19.7</v>
       </c>
       <c r="E63" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>197849.6412</v>
       </c>
       <c r="G63" t="n">
-        <v>19.32333333333333</v>
+        <v>19.31333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2655,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C64" t="n">
         <v>19.7</v>
@@ -2668,13 +2664,13 @@
         <v>19.7</v>
       </c>
       <c r="E64" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F64" t="n">
-        <v>861540.6369</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>19.33499999999999</v>
+        <v>19.32333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,7 +2690,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C65" t="n">
         <v>19.7</v>
@@ -2703,13 +2699,13 @@
         <v>19.7</v>
       </c>
       <c r="E65" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F65" t="n">
-        <v>464230.9111</v>
+        <v>861540.6369</v>
       </c>
       <c r="G65" t="n">
-        <v>19.34666666666666</v>
+        <v>19.33499999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2741,10 +2737,10 @@
         <v>19.7</v>
       </c>
       <c r="F66" t="n">
-        <v>653032.8543</v>
+        <v>464230.9111</v>
       </c>
       <c r="G66" t="n">
-        <v>19.35666666666667</v>
+        <v>19.34666666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,19 +2763,19 @@
         <v>19.7</v>
       </c>
       <c r="C67" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="D67" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E67" t="n">
         <v>19.7</v>
       </c>
       <c r="F67" t="n">
-        <v>624149.9223</v>
+        <v>653032.8543</v>
       </c>
       <c r="G67" t="n">
-        <v>19.37166666666666</v>
+        <v>19.35666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2802,7 +2798,7 @@
         <v>19.7</v>
       </c>
       <c r="C68" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="D68" t="n">
         <v>19.8</v>
@@ -2811,10 +2807,10 @@
         <v>19.7</v>
       </c>
       <c r="F68" t="n">
-        <v>451523.9454</v>
+        <v>624149.9223</v>
       </c>
       <c r="G68" t="n">
-        <v>19.38499999999999</v>
+        <v>19.37166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2840,16 +2836,16 @@
         <v>19.7</v>
       </c>
       <c r="D69" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="E69" t="n">
         <v>19.7</v>
       </c>
       <c r="F69" t="n">
-        <v>466744.8028</v>
+        <v>451523.9454</v>
       </c>
       <c r="G69" t="n">
-        <v>19.39666666666666</v>
+        <v>19.38499999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2881,10 +2877,10 @@
         <v>19.7</v>
       </c>
       <c r="F70" t="n">
-        <v>418253.5615</v>
+        <v>466744.8028</v>
       </c>
       <c r="G70" t="n">
-        <v>19.40833333333333</v>
+        <v>19.39666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2910,16 +2906,16 @@
         <v>19.7</v>
       </c>
       <c r="D71" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E71" t="n">
         <v>19.7</v>
       </c>
       <c r="F71" t="n">
-        <v>967515.9895</v>
+        <v>418253.5615</v>
       </c>
       <c r="G71" t="n">
-        <v>19.42</v>
+        <v>19.40833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2945,16 +2941,16 @@
         <v>19.7</v>
       </c>
       <c r="D72" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="E72" t="n">
         <v>19.7</v>
       </c>
       <c r="F72" t="n">
-        <v>140635.1269</v>
+        <v>967515.9895</v>
       </c>
       <c r="G72" t="n">
-        <v>19.43333333333333</v>
+        <v>19.42</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2974,7 +2970,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C73" t="n">
         <v>19.7</v>
@@ -2983,13 +2979,13 @@
         <v>19.7</v>
       </c>
       <c r="E73" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F73" t="n">
-        <v>216695.4314</v>
+        <v>140635.1269</v>
       </c>
       <c r="G73" t="n">
-        <v>19.445</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3012,19 +3008,19 @@
         <v>19.6</v>
       </c>
       <c r="C74" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D74" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E74" t="n">
         <v>19.6</v>
       </c>
       <c r="F74" t="n">
-        <v>36262.0907</v>
+        <v>216695.4314</v>
       </c>
       <c r="G74" t="n">
-        <v>19.45666666666666</v>
+        <v>19.445</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3056,10 +3052,10 @@
         <v>19.6</v>
       </c>
       <c r="F75" t="n">
-        <v>112415.6092</v>
+        <v>36262.0907</v>
       </c>
       <c r="G75" t="n">
-        <v>19.46666666666666</v>
+        <v>19.45666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3079,22 +3075,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C76" t="n">
         <v>19.6</v>
       </c>
       <c r="D76" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E76" t="n">
         <v>19.6</v>
       </c>
       <c r="F76" t="n">
-        <v>41416.6567</v>
+        <v>112415.6092</v>
       </c>
       <c r="G76" t="n">
-        <v>19.47666666666666</v>
+        <v>19.46666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3114,7 +3110,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C77" t="n">
         <v>19.6</v>
@@ -3126,10 +3122,10 @@
         <v>19.6</v>
       </c>
       <c r="F77" t="n">
-        <v>300854.8709</v>
+        <v>41416.6567</v>
       </c>
       <c r="G77" t="n">
-        <v>19.48499999999999</v>
+        <v>19.47666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3149,22 +3145,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C78" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D78" t="n">
         <v>19.7</v>
       </c>
       <c r="E78" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>300854.8709</v>
       </c>
       <c r="G78" t="n">
-        <v>19.49499999999999</v>
+        <v>19.48499999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3184,22 +3180,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C79" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D79" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E79" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F79" t="n">
-        <v>184857.3586</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>19.50333333333333</v>
+        <v>19.49499999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3219,22 +3215,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C80" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D80" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E80" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F80" t="n">
-        <v>481.1309</v>
+        <v>184857.3586</v>
       </c>
       <c r="G80" t="n">
-        <v>19.50999999999999</v>
+        <v>19.50333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3266,10 +3262,10 @@
         <v>19.5</v>
       </c>
       <c r="F81" t="n">
-        <v>5287.7575</v>
+        <v>481.1309</v>
       </c>
       <c r="G81" t="n">
-        <v>19.51666666666666</v>
+        <v>19.50999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3289,22 +3285,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C82" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D82" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E82" t="n">
         <v>19.5</v>
       </c>
       <c r="F82" t="n">
-        <v>874804.8235000001</v>
+        <v>5287.7575</v>
       </c>
       <c r="G82" t="n">
-        <v>19.525</v>
+        <v>19.51666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3327,7 +3323,7 @@
         <v>19.6</v>
       </c>
       <c r="C83" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D83" t="n">
         <v>19.6</v>
@@ -3336,10 +3332,10 @@
         <v>19.5</v>
       </c>
       <c r="F83" t="n">
-        <v>101136.9405</v>
+        <v>874804.8235000001</v>
       </c>
       <c r="G83" t="n">
-        <v>19.53166666666666</v>
+        <v>19.525</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3362,19 +3358,19 @@
         <v>19.6</v>
       </c>
       <c r="C84" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D84" t="n">
         <v>19.6</v>
       </c>
       <c r="E84" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>101136.9405</v>
       </c>
       <c r="G84" t="n">
-        <v>19.53833333333333</v>
+        <v>19.53166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3394,22 +3390,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C85" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D85" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E85" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F85" t="n">
-        <v>35646.4931</v>
+        <v>20000</v>
       </c>
       <c r="G85" t="n">
-        <v>19.54333333333333</v>
+        <v>19.53833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3429,22 +3425,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C86" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D86" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E86" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F86" t="n">
-        <v>209.18367346</v>
+        <v>35646.4931</v>
       </c>
       <c r="G86" t="n">
-        <v>19.54999999999999</v>
+        <v>19.54333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3476,10 +3472,10 @@
         <v>19.6</v>
       </c>
       <c r="F87" t="n">
-        <v>43600</v>
+        <v>209.18367346</v>
       </c>
       <c r="G87" t="n">
-        <v>19.55499999999999</v>
+        <v>19.54999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3511,10 +3507,10 @@
         <v>19.6</v>
       </c>
       <c r="F88" t="n">
-        <v>239411.5445</v>
+        <v>43600</v>
       </c>
       <c r="G88" t="n">
-        <v>19.55999999999999</v>
+        <v>19.55499999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3546,10 +3542,10 @@
         <v>19.6</v>
       </c>
       <c r="F89" t="n">
-        <v>11029.1722</v>
+        <v>239411.5445</v>
       </c>
       <c r="G89" t="n">
-        <v>19.56333333333332</v>
+        <v>19.55999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3569,22 +3565,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C90" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D90" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E90" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F90" t="n">
-        <v>509499.1417</v>
+        <v>11029.1722</v>
       </c>
       <c r="G90" t="n">
-        <v>19.56999999999999</v>
+        <v>19.56333333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3604,22 +3600,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C91" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D91" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E91" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F91" t="n">
-        <v>78472.7326</v>
+        <v>509499.1417</v>
       </c>
       <c r="G91" t="n">
-        <v>19.57499999999999</v>
+        <v>19.56999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3642,19 +3638,19 @@
         <v>19.6</v>
       </c>
       <c r="C92" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D92" t="n">
         <v>19.6</v>
       </c>
       <c r="E92" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F92" t="n">
-        <v>278481.8263</v>
+        <v>78472.7326</v>
       </c>
       <c r="G92" t="n">
-        <v>19.57666666666665</v>
+        <v>19.57499999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3677,19 +3673,19 @@
         <v>19.6</v>
       </c>
       <c r="C93" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D93" t="n">
         <v>19.6</v>
       </c>
       <c r="E93" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F93" t="n">
-        <v>20079.3661</v>
+        <v>278481.8263</v>
       </c>
       <c r="G93" t="n">
-        <v>19.58166666666665</v>
+        <v>19.57666666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3712,19 +3708,19 @@
         <v>19.6</v>
       </c>
       <c r="C94" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D94" t="n">
         <v>19.6</v>
       </c>
       <c r="E94" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F94" t="n">
-        <v>676727.4741</v>
+        <v>20079.3661</v>
       </c>
       <c r="G94" t="n">
-        <v>19.58499999999999</v>
+        <v>19.58166666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3744,22 +3740,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C95" t="n">
         <v>19.5</v>
       </c>
       <c r="D95" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E95" t="n">
         <v>19.5</v>
       </c>
       <c r="F95" t="n">
-        <v>171164.74</v>
+        <v>676727.4741</v>
       </c>
       <c r="G95" t="n">
-        <v>19.58833333333332</v>
+        <v>19.58499999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3791,10 +3787,10 @@
         <v>19.5</v>
       </c>
       <c r="F96" t="n">
-        <v>462.923</v>
+        <v>171164.74</v>
       </c>
       <c r="G96" t="n">
-        <v>19.58999999999999</v>
+        <v>19.58833333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3817,19 +3813,19 @@
         <v>19.5</v>
       </c>
       <c r="C97" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D97" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E97" t="n">
         <v>19.5</v>
       </c>
       <c r="F97" t="n">
-        <v>124937.077</v>
+        <v>462.923</v>
       </c>
       <c r="G97" t="n">
-        <v>19.59499999999998</v>
+        <v>19.58999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3852,19 +3848,19 @@
         <v>19.5</v>
       </c>
       <c r="C98" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D98" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E98" t="n">
         <v>19.5</v>
       </c>
       <c r="F98" t="n">
-        <v>141566.25</v>
+        <v>124937.077</v>
       </c>
       <c r="G98" t="n">
-        <v>19.59666666666665</v>
+        <v>19.59499999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3896,10 +3892,10 @@
         <v>19.5</v>
       </c>
       <c r="F99" t="n">
-        <v>21310</v>
+        <v>141566.25</v>
       </c>
       <c r="G99" t="n">
-        <v>19.59999999999998</v>
+        <v>19.59666666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3919,22 +3915,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C100" t="n">
         <v>19.5</v>
       </c>
       <c r="D100" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E100" t="n">
         <v>19.5</v>
       </c>
       <c r="F100" t="n">
-        <v>113191.3413</v>
+        <v>21310</v>
       </c>
       <c r="G100" t="n">
-        <v>19.60166666666665</v>
+        <v>19.59999999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3954,7 +3950,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C101" t="n">
         <v>19.5</v>
@@ -3966,10 +3962,10 @@
         <v>19.5</v>
       </c>
       <c r="F101" t="n">
-        <v>84806</v>
+        <v>113191.3413</v>
       </c>
       <c r="G101" t="n">
-        <v>19.60333333333331</v>
+        <v>19.60166666666665</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3989,22 +3985,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C102" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D102" t="n">
         <v>19.6</v>
       </c>
       <c r="E102" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>84806</v>
       </c>
       <c r="G102" t="n">
-        <v>19.60499999999998</v>
+        <v>19.60333333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4024,19 +4020,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C103" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D103" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E103" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F103" t="n">
-        <v>32612.8205</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
         <v>19.60499999999998</v>
@@ -4071,7 +4067,7 @@
         <v>19.5</v>
       </c>
       <c r="F104" t="n">
-        <v>66950</v>
+        <v>32612.8205</v>
       </c>
       <c r="G104" t="n">
         <v>19.60499999999998</v>
@@ -4106,7 +4102,7 @@
         <v>19.5</v>
       </c>
       <c r="F105" t="n">
-        <v>8820</v>
+        <v>66950</v>
       </c>
       <c r="G105" t="n">
         <v>19.60499999999998</v>
@@ -4141,10 +4137,10 @@
         <v>19.5</v>
       </c>
       <c r="F106" t="n">
-        <v>124811</v>
+        <v>8820</v>
       </c>
       <c r="G106" t="n">
-        <v>19.60333333333331</v>
+        <v>19.60499999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4164,22 +4160,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C107" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D107" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E107" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F107" t="n">
-        <v>4360.4402</v>
+        <v>124811</v>
       </c>
       <c r="G107" t="n">
-        <v>19.60166666666665</v>
+        <v>19.60333333333331</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4199,19 +4195,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C108" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D108" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="E108" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F108" t="n">
-        <v>51.9387</v>
+        <v>4360.4402</v>
       </c>
       <c r="G108" t="n">
         <v>19.60166666666665</v>
@@ -4237,19 +4233,19 @@
         <v>19.6</v>
       </c>
       <c r="C109" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="D109" t="n">
         <v>19.6</v>
       </c>
       <c r="E109" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="F109" t="n">
-        <v>626.4747</v>
+        <v>51.9387</v>
       </c>
       <c r="G109" t="n">
-        <v>19.59666666666665</v>
+        <v>19.60166666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4269,10 +4265,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="C110" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D110" t="n">
         <v>19.6</v>
@@ -4281,7 +4277,7 @@
         <v>19.4</v>
       </c>
       <c r="F110" t="n">
-        <v>31665.01518163</v>
+        <v>626.4747</v>
       </c>
       <c r="G110" t="n">
         <v>19.59666666666665</v>
@@ -4307,19 +4303,19 @@
         <v>19.4</v>
       </c>
       <c r="C111" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="D111" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="E111" t="n">
         <v>19.4</v>
       </c>
       <c r="F111" t="n">
-        <v>15281.5024</v>
+        <v>31665.01518163</v>
       </c>
       <c r="G111" t="n">
-        <v>19.59499999999998</v>
+        <v>19.59666666666665</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4351,10 +4347,10 @@
         <v>19.4</v>
       </c>
       <c r="F112" t="n">
-        <v>6564.5319</v>
+        <v>15281.5024</v>
       </c>
       <c r="G112" t="n">
-        <v>19.59166666666665</v>
+        <v>19.59499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4386,10 +4382,10 @@
         <v>19.4</v>
       </c>
       <c r="F113" t="n">
-        <v>8188.9499</v>
+        <v>6564.5319</v>
       </c>
       <c r="G113" t="n">
-        <v>19.58833333333332</v>
+        <v>19.59166666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4421,10 +4417,10 @@
         <v>19.4</v>
       </c>
       <c r="F114" t="n">
-        <v>10000</v>
+        <v>8188.9499</v>
       </c>
       <c r="G114" t="n">
-        <v>19.58499999999999</v>
+        <v>19.58833333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4456,10 +4452,10 @@
         <v>19.4</v>
       </c>
       <c r="F115" t="n">
-        <v>378.4939</v>
+        <v>10000</v>
       </c>
       <c r="G115" t="n">
-        <v>19.58166666666666</v>
+        <v>19.58499999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4491,10 +4487,10 @@
         <v>19.4</v>
       </c>
       <c r="F116" t="n">
-        <v>15658.7297</v>
+        <v>378.4939</v>
       </c>
       <c r="G116" t="n">
-        <v>19.57666666666666</v>
+        <v>19.58166666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4526,10 +4522,10 @@
         <v>19.4</v>
       </c>
       <c r="F117" t="n">
-        <v>30000</v>
+        <v>15658.7297</v>
       </c>
       <c r="G117" t="n">
-        <v>19.57333333333333</v>
+        <v>19.57666666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4561,10 +4557,10 @@
         <v>19.4</v>
       </c>
       <c r="F118" t="n">
-        <v>19701.4908</v>
+        <v>30000</v>
       </c>
       <c r="G118" t="n">
-        <v>19.56833333333334</v>
+        <v>19.57333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4596,10 +4592,10 @@
         <v>19.4</v>
       </c>
       <c r="F119" t="n">
-        <v>23995.5348</v>
+        <v>19701.4908</v>
       </c>
       <c r="G119" t="n">
-        <v>19.56333333333334</v>
+        <v>19.56833333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4631,10 +4627,10 @@
         <v>19.4</v>
       </c>
       <c r="F120" t="n">
-        <v>460.1172</v>
+        <v>23995.5348</v>
       </c>
       <c r="G120" t="n">
-        <v>19.55833333333334</v>
+        <v>19.56333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4666,10 +4662,10 @@
         <v>19.4</v>
       </c>
       <c r="F121" t="n">
-        <v>3169.2406</v>
+        <v>460.1172</v>
       </c>
       <c r="G121" t="n">
-        <v>19.55500000000001</v>
+        <v>19.55833333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4689,22 +4685,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C122" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D122" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E122" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F122" t="n">
-        <v>15000</v>
+        <v>3169.2406</v>
       </c>
       <c r="G122" t="n">
-        <v>19.55166666666667</v>
+        <v>19.55500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4736,10 +4732,10 @@
         <v>19.5</v>
       </c>
       <c r="F123" t="n">
-        <v>448.2564</v>
+        <v>15000</v>
       </c>
       <c r="G123" t="n">
-        <v>19.54833333333334</v>
+        <v>19.55166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4771,10 +4767,10 @@
         <v>19.5</v>
       </c>
       <c r="F124" t="n">
-        <v>733408.0665</v>
+        <v>448.2564</v>
       </c>
       <c r="G124" t="n">
-        <v>19.54500000000001</v>
+        <v>19.54833333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4806,10 +4802,10 @@
         <v>19.5</v>
       </c>
       <c r="F125" t="n">
-        <v>1562.5636</v>
+        <v>733408.0665</v>
       </c>
       <c r="G125" t="n">
-        <v>19.54166666666667</v>
+        <v>19.54500000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4841,10 +4837,10 @@
         <v>19.5</v>
       </c>
       <c r="F126" t="n">
-        <v>92502.2441</v>
+        <v>1562.5636</v>
       </c>
       <c r="G126" t="n">
-        <v>19.53833333333334</v>
+        <v>19.54166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4876,10 +4872,10 @@
         <v>19.5</v>
       </c>
       <c r="F127" t="n">
-        <v>69422.07490000001</v>
+        <v>92502.2441</v>
       </c>
       <c r="G127" t="n">
-        <v>19.53333333333334</v>
+        <v>19.53833333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4911,10 +4907,10 @@
         <v>19.5</v>
       </c>
       <c r="F128" t="n">
-        <v>748378.0337</v>
+        <v>69422.07490000001</v>
       </c>
       <c r="G128" t="n">
-        <v>19.53</v>
+        <v>19.53333333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4934,22 +4930,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C129" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D129" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E129" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F129" t="n">
-        <v>4500</v>
+        <v>748378.0337</v>
       </c>
       <c r="G129" t="n">
-        <v>19.52833333333333</v>
+        <v>19.53</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4969,22 +4965,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C130" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D130" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E130" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F130" t="n">
-        <v>322774.3386</v>
+        <v>4500</v>
       </c>
       <c r="G130" t="n">
-        <v>19.525</v>
+        <v>19.52833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5004,22 +5000,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C131" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D131" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E131" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F131" t="n">
-        <v>12430.1233</v>
+        <v>322774.3386</v>
       </c>
       <c r="G131" t="n">
-        <v>19.52</v>
+        <v>19.525</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5039,22 +5035,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C132" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D132" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E132" t="n">
         <v>19.4</v>
       </c>
       <c r="F132" t="n">
-        <v>477912.0089</v>
+        <v>12430.1233</v>
       </c>
       <c r="G132" t="n">
-        <v>19.51666666666667</v>
+        <v>19.52</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5083,13 +5079,13 @@
         <v>19.5</v>
       </c>
       <c r="E133" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F133" t="n">
-        <v>358383.3157</v>
+        <v>477912.0089</v>
       </c>
       <c r="G133" t="n">
-        <v>19.51333333333333</v>
+        <v>19.51666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5121,10 +5117,10 @@
         <v>19.5</v>
       </c>
       <c r="F134" t="n">
-        <v>497630.7229</v>
+        <v>358383.3157</v>
       </c>
       <c r="G134" t="n">
-        <v>19.51166666666667</v>
+        <v>19.51333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5156,10 +5152,10 @@
         <v>19.5</v>
       </c>
       <c r="F135" t="n">
-        <v>20570</v>
+        <v>497630.7229</v>
       </c>
       <c r="G135" t="n">
-        <v>19.51</v>
+        <v>19.51166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5191,10 +5187,10 @@
         <v>19.5</v>
       </c>
       <c r="F136" t="n">
-        <v>250871.9626</v>
+        <v>20570</v>
       </c>
       <c r="G136" t="n">
-        <v>19.50833333333334</v>
+        <v>19.51</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5226,10 +5222,10 @@
         <v>19.5</v>
       </c>
       <c r="F137" t="n">
-        <v>1877.5</v>
+        <v>250871.9626</v>
       </c>
       <c r="G137" t="n">
-        <v>19.50666666666667</v>
+        <v>19.50833333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5261,10 +5257,10 @@
         <v>19.5</v>
       </c>
       <c r="F138" t="n">
-        <v>36305.6417</v>
+        <v>1877.5</v>
       </c>
       <c r="G138" t="n">
-        <v>19.50333333333334</v>
+        <v>19.50666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5296,10 +5292,10 @@
         <v>19.5</v>
       </c>
       <c r="F139" t="n">
-        <v>448581.6585</v>
+        <v>36305.6417</v>
       </c>
       <c r="G139" t="n">
-        <v>19.50166666666667</v>
+        <v>19.50333333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5331,7 +5327,7 @@
         <v>19.5</v>
       </c>
       <c r="F140" t="n">
-        <v>55623.0429</v>
+        <v>448581.6585</v>
       </c>
       <c r="G140" t="n">
         <v>19.50166666666667</v>
@@ -5366,7 +5362,7 @@
         <v>19.5</v>
       </c>
       <c r="F141" t="n">
-        <v>26446.1591</v>
+        <v>55623.0429</v>
       </c>
       <c r="G141" t="n">
         <v>19.50166666666667</v>
@@ -5401,10 +5397,10 @@
         <v>19.5</v>
       </c>
       <c r="F142" t="n">
-        <v>137291.2791</v>
+        <v>26446.1591</v>
       </c>
       <c r="G142" t="n">
-        <v>19.50000000000001</v>
+        <v>19.50166666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5436,7 +5432,7 @@
         <v>19.5</v>
       </c>
       <c r="F143" t="n">
-        <v>111717.531</v>
+        <v>137291.2791</v>
       </c>
       <c r="G143" t="n">
         <v>19.50000000000001</v>
@@ -5471,10 +5467,10 @@
         <v>19.5</v>
       </c>
       <c r="F144" t="n">
-        <v>406126.7363</v>
+        <v>111717.531</v>
       </c>
       <c r="G144" t="n">
-        <v>19.49833333333334</v>
+        <v>19.50000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5506,7 +5502,7 @@
         <v>19.5</v>
       </c>
       <c r="F145" t="n">
-        <v>3090</v>
+        <v>406126.7363</v>
       </c>
       <c r="G145" t="n">
         <v>19.49833333333334</v>
@@ -5541,10 +5537,10 @@
         <v>19.5</v>
       </c>
       <c r="F146" t="n">
-        <v>102946.644</v>
+        <v>3090</v>
       </c>
       <c r="G146" t="n">
-        <v>19.49666666666668</v>
+        <v>19.49833333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5576,10 +5572,10 @@
         <v>19.5</v>
       </c>
       <c r="F147" t="n">
-        <v>62298.2073</v>
+        <v>102946.644</v>
       </c>
       <c r="G147" t="n">
-        <v>19.49500000000001</v>
+        <v>19.49666666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5611,10 +5607,10 @@
         <v>19.5</v>
       </c>
       <c r="F148" t="n">
-        <v>35045.5197</v>
+        <v>62298.2073</v>
       </c>
       <c r="G148" t="n">
-        <v>19.49333333333335</v>
+        <v>19.49500000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5646,10 +5642,10 @@
         <v>19.5</v>
       </c>
       <c r="F149" t="n">
-        <v>2580</v>
+        <v>35045.5197</v>
       </c>
       <c r="G149" t="n">
-        <v>19.49166666666668</v>
+        <v>19.49333333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5681,10 +5677,10 @@
         <v>19.5</v>
       </c>
       <c r="F150" t="n">
-        <v>69806.2819</v>
+        <v>2580</v>
       </c>
       <c r="G150" t="n">
-        <v>19.48833333333335</v>
+        <v>19.49166666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5716,10 +5712,10 @@
         <v>19.5</v>
       </c>
       <c r="F151" t="n">
-        <v>138337.2539</v>
+        <v>69806.2819</v>
       </c>
       <c r="G151" t="n">
-        <v>19.48666666666668</v>
+        <v>19.48833333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5751,7 +5747,7 @@
         <v>19.5</v>
       </c>
       <c r="F152" t="n">
-        <v>225077.6184</v>
+        <v>138337.2539</v>
       </c>
       <c r="G152" t="n">
         <v>19.48666666666668</v>
@@ -5786,10 +5782,10 @@
         <v>19.5</v>
       </c>
       <c r="F153" t="n">
-        <v>266.5426</v>
+        <v>225077.6184</v>
       </c>
       <c r="G153" t="n">
-        <v>19.48500000000002</v>
+        <v>19.48666666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5812,19 +5808,19 @@
         <v>19.5</v>
       </c>
       <c r="C154" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D154" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E154" t="n">
         <v>19.5</v>
       </c>
       <c r="F154" t="n">
-        <v>268400</v>
+        <v>266.5426</v>
       </c>
       <c r="G154" t="n">
-        <v>19.48666666666668</v>
+        <v>19.48500000000002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5844,7 +5840,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C155" t="n">
         <v>19.6</v>
@@ -5853,13 +5849,13 @@
         <v>19.6</v>
       </c>
       <c r="E155" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F155" t="n">
-        <v>150525.1688</v>
+        <v>268400</v>
       </c>
       <c r="G155" t="n">
-        <v>19.48833333333335</v>
+        <v>19.48666666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5891,10 +5887,10 @@
         <v>19.6</v>
       </c>
       <c r="F156" t="n">
-        <v>4943.9692</v>
+        <v>150525.1688</v>
       </c>
       <c r="G156" t="n">
-        <v>19.49000000000001</v>
+        <v>19.48833333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5926,7 +5922,7 @@
         <v>19.6</v>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>4943.9692</v>
       </c>
       <c r="G157" t="n">
         <v>19.49000000000001</v>
@@ -5961,10 +5957,10 @@
         <v>19.6</v>
       </c>
       <c r="F158" t="n">
-        <v>11700</v>
+        <v>200</v>
       </c>
       <c r="G158" t="n">
-        <v>19.49166666666668</v>
+        <v>19.49000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5987,19 +5983,19 @@
         <v>19.6</v>
       </c>
       <c r="C159" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D159" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E159" t="n">
         <v>19.6</v>
       </c>
       <c r="F159" t="n">
-        <v>760.99842699</v>
+        <v>11700</v>
       </c>
       <c r="G159" t="n">
-        <v>19.49500000000001</v>
+        <v>19.49166666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6019,22 +6015,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C160" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D160" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E160" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F160" t="n">
-        <v>44243.5352</v>
+        <v>760.99842699</v>
       </c>
       <c r="G160" t="n">
-        <v>19.49666666666668</v>
+        <v>19.49500000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6054,7 +6050,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C161" t="n">
         <v>19.6</v>
@@ -6063,13 +6059,13 @@
         <v>19.6</v>
       </c>
       <c r="E161" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F161" t="n">
-        <v>81329.42999999999</v>
+        <v>44243.5352</v>
       </c>
       <c r="G161" t="n">
-        <v>19.49833333333334</v>
+        <v>19.49666666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6089,22 +6085,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C162" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D162" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E162" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F162" t="n">
-        <v>100000</v>
+        <v>81329.42999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>19.49666666666668</v>
+        <v>19.49833333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6124,22 +6120,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C163" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D163" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E163" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G163" t="n">
-        <v>19.49833333333334</v>
+        <v>19.49666666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6171,10 +6167,10 @@
         <v>19.6</v>
       </c>
       <c r="F164" t="n">
-        <v>13617.6358</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>19.50000000000001</v>
+        <v>19.49833333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6206,10 +6202,10 @@
         <v>19.6</v>
       </c>
       <c r="F165" t="n">
-        <v>16215.6727</v>
+        <v>13617.6358</v>
       </c>
       <c r="G165" t="n">
-        <v>19.50166666666667</v>
+        <v>19.50000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6241,10 +6237,10 @@
         <v>19.6</v>
       </c>
       <c r="F166" t="n">
-        <v>10682.29591836</v>
+        <v>16215.6727</v>
       </c>
       <c r="G166" t="n">
-        <v>19.50333333333334</v>
+        <v>19.50166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6276,10 +6272,10 @@
         <v>19.6</v>
       </c>
       <c r="F167" t="n">
-        <v>168868.39758164</v>
+        <v>10682.29591836</v>
       </c>
       <c r="G167" t="n">
-        <v>19.50666666666667</v>
+        <v>19.50333333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6311,7 +6307,7 @@
         <v>19.6</v>
       </c>
       <c r="F168" t="n">
-        <v>3840</v>
+        <v>168868.39758164</v>
       </c>
       <c r="G168" t="n">
         <v>19.50666666666667</v>
@@ -6346,10 +6342,10 @@
         <v>19.6</v>
       </c>
       <c r="F169" t="n">
-        <v>54397.1887</v>
+        <v>3840</v>
       </c>
       <c r="G169" t="n">
-        <v>19.51</v>
+        <v>19.50666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6369,22 +6365,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C170" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D170" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E170" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>54397.1887</v>
       </c>
       <c r="G170" t="n">
-        <v>19.51166666666667</v>
+        <v>19.51</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6416,10 +6412,10 @@
         <v>19.7</v>
       </c>
       <c r="F171" t="n">
-        <v>111400</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>19.51666666666667</v>
+        <v>19.51166666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6451,10 +6447,10 @@
         <v>19.7</v>
       </c>
       <c r="F172" t="n">
-        <v>244738.0681</v>
+        <v>111400</v>
       </c>
       <c r="G172" t="n">
-        <v>19.52166666666666</v>
+        <v>19.51666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6486,10 +6482,10 @@
         <v>19.7</v>
       </c>
       <c r="F173" t="n">
-        <v>202245.9115</v>
+        <v>244738.0681</v>
       </c>
       <c r="G173" t="n">
-        <v>19.52666666666666</v>
+        <v>19.52166666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6521,10 +6517,10 @@
         <v>19.7</v>
       </c>
       <c r="F174" t="n">
-        <v>47485.2157</v>
+        <v>202245.9115</v>
       </c>
       <c r="G174" t="n">
-        <v>19.53166666666666</v>
+        <v>19.52666666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6556,10 +6552,10 @@
         <v>19.7</v>
       </c>
       <c r="F175" t="n">
-        <v>115745.2029</v>
+        <v>47485.2157</v>
       </c>
       <c r="G175" t="n">
-        <v>19.53666666666667</v>
+        <v>19.53166666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6591,10 +6587,10 @@
         <v>19.7</v>
       </c>
       <c r="F176" t="n">
-        <v>13355.2284</v>
+        <v>115745.2029</v>
       </c>
       <c r="G176" t="n">
-        <v>19.54166666666666</v>
+        <v>19.53666666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6614,22 +6610,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C177" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D177" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E177" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F177" t="n">
-        <v>667547.0727</v>
+        <v>13355.2284</v>
       </c>
       <c r="G177" t="n">
-        <v>19.54499999999999</v>
+        <v>19.54166666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6649,22 +6645,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C178" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D178" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E178" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F178" t="n">
-        <v>17.2081</v>
+        <v>667547.0727</v>
       </c>
       <c r="G178" t="n">
-        <v>19.54999999999999</v>
+        <v>19.54499999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6696,10 +6692,10 @@
         <v>19.7</v>
       </c>
       <c r="F179" t="n">
-        <v>19591.6745</v>
+        <v>17.2081</v>
       </c>
       <c r="G179" t="n">
-        <v>19.55499999999999</v>
+        <v>19.54999999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6731,10 +6727,10 @@
         <v>19.7</v>
       </c>
       <c r="F180" t="n">
-        <v>393483.6503</v>
+        <v>19591.6745</v>
       </c>
       <c r="G180" t="n">
-        <v>19.55999999999999</v>
+        <v>19.55499999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6766,10 +6762,10 @@
         <v>19.7</v>
       </c>
       <c r="F181" t="n">
-        <v>232991.7849</v>
+        <v>393483.6503</v>
       </c>
       <c r="G181" t="n">
-        <v>19.56499999999999</v>
+        <v>19.55999999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6792,19 +6788,19 @@
         <v>19.7</v>
       </c>
       <c r="C182" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D182" t="n">
         <v>19.7</v>
       </c>
       <c r="E182" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F182" t="n">
-        <v>566509.537</v>
+        <v>232991.7849</v>
       </c>
       <c r="G182" t="n">
-        <v>19.56666666666666</v>
+        <v>19.56499999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6824,22 +6820,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C183" t="n">
         <v>19.6</v>
       </c>
       <c r="D183" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E183" t="n">
         <v>19.6</v>
       </c>
       <c r="F183" t="n">
-        <v>67621.5</v>
+        <v>566509.537</v>
       </c>
       <c r="G183" t="n">
-        <v>19.56833333333332</v>
+        <v>19.56666666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6871,10 +6867,10 @@
         <v>19.6</v>
       </c>
       <c r="F184" t="n">
-        <v>6040.875</v>
+        <v>67621.5</v>
       </c>
       <c r="G184" t="n">
-        <v>19.56999999999999</v>
+        <v>19.56833333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6894,22 +6890,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C185" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D185" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E185" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F185" t="n">
-        <v>64280.1269</v>
+        <v>6040.875</v>
       </c>
       <c r="G185" t="n">
-        <v>19.57333333333332</v>
+        <v>19.56999999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6941,10 +6937,10 @@
         <v>19.7</v>
       </c>
       <c r="F186" t="n">
-        <v>3807.1065</v>
+        <v>64280.1269</v>
       </c>
       <c r="G186" t="n">
-        <v>19.57666666666665</v>
+        <v>19.57333333333332</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6964,22 +6960,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C187" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D187" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E187" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F187" t="n">
-        <v>10988.6318</v>
+        <v>3807.1065</v>
       </c>
       <c r="G187" t="n">
-        <v>19.57833333333332</v>
+        <v>19.57666666666665</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7011,10 +7007,10 @@
         <v>19.6</v>
       </c>
       <c r="F188" t="n">
-        <v>176144.1829</v>
+        <v>10988.6318</v>
       </c>
       <c r="G188" t="n">
-        <v>19.57999999999998</v>
+        <v>19.57833333333332</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7046,7 +7042,7 @@
         <v>19.6</v>
       </c>
       <c r="F189" t="n">
-        <v>50000</v>
+        <v>176144.1829</v>
       </c>
       <c r="G189" t="n">
         <v>19.57999999999998</v>
@@ -7075,16 +7071,16 @@
         <v>19.6</v>
       </c>
       <c r="D190" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E190" t="n">
         <v>19.6</v>
       </c>
       <c r="F190" t="n">
-        <v>973582.2476</v>
+        <v>50000</v>
       </c>
       <c r="G190" t="n">
-        <v>19.58166666666665</v>
+        <v>19.57999999999998</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7110,16 +7106,16 @@
         <v>19.6</v>
       </c>
       <c r="D191" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E191" t="n">
         <v>19.6</v>
       </c>
       <c r="F191" t="n">
-        <v>458.9162</v>
+        <v>973582.2476</v>
       </c>
       <c r="G191" t="n">
-        <v>19.58499999999998</v>
+        <v>19.58166666666665</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7142,19 +7138,19 @@
         <v>19.6</v>
       </c>
       <c r="C192" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D192" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E192" t="n">
         <v>19.6</v>
       </c>
       <c r="F192" t="n">
-        <v>275482.4683</v>
+        <v>458.9162</v>
       </c>
       <c r="G192" t="n">
-        <v>19.58833333333331</v>
+        <v>19.58499999999998</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7174,7 +7170,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C193" t="n">
         <v>19.7</v>
@@ -7183,13 +7179,13 @@
         <v>19.7</v>
       </c>
       <c r="E193" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F193" t="n">
-        <v>55068.8324</v>
+        <v>275482.4683</v>
       </c>
       <c r="G193" t="n">
-        <v>19.59166666666665</v>
+        <v>19.58833333333331</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7209,22 +7205,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C194" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D194" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E194" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F194" t="n">
-        <v>158206.9041</v>
+        <v>55068.8324</v>
       </c>
       <c r="G194" t="n">
-        <v>19.59333333333331</v>
+        <v>19.59166666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7256,10 +7252,10 @@
         <v>19.6</v>
       </c>
       <c r="F195" t="n">
-        <v>131130.7785</v>
+        <v>158206.9041</v>
       </c>
       <c r="G195" t="n">
-        <v>19.59499999999998</v>
+        <v>19.59333333333331</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7279,19 +7275,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C196" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D196" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E196" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F196" t="n">
-        <v>189.247</v>
+        <v>131130.7785</v>
       </c>
       <c r="G196" t="n">
         <v>19.59499999999998</v>
@@ -7317,19 +7313,19 @@
         <v>19.5</v>
       </c>
       <c r="C197" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D197" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E197" t="n">
         <v>19.5</v>
       </c>
       <c r="F197" t="n">
-        <v>33609.3395</v>
+        <v>189.247</v>
       </c>
       <c r="G197" t="n">
-        <v>19.59666666666664</v>
+        <v>19.59499999999998</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7352,7 +7348,7 @@
         <v>19.5</v>
       </c>
       <c r="C198" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D198" t="n">
         <v>19.6</v>
@@ -7361,7 +7357,7 @@
         <v>19.5</v>
       </c>
       <c r="F198" t="n">
-        <v>5122663.8907</v>
+        <v>33609.3395</v>
       </c>
       <c r="G198" t="n">
         <v>19.59666666666664</v>
@@ -7384,22 +7380,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C199" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D199" t="n">
         <v>19.6</v>
       </c>
       <c r="E199" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F199" t="n">
-        <v>15</v>
+        <v>5122663.8907</v>
       </c>
       <c r="G199" t="n">
-        <v>19.59833333333331</v>
+        <v>19.59666666666664</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7431,10 +7427,10 @@
         <v>19.6</v>
       </c>
       <c r="F200" t="n">
-        <v>257325.2949</v>
+        <v>15</v>
       </c>
       <c r="G200" t="n">
-        <v>19.59999999999997</v>
+        <v>19.59833333333331</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7466,10 +7462,10 @@
         <v>19.6</v>
       </c>
       <c r="F201" t="n">
-        <v>87363.10390204001</v>
+        <v>257325.2949</v>
       </c>
       <c r="G201" t="n">
-        <v>19.60166666666664</v>
+        <v>19.59999999999997</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7489,7 +7485,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C202" t="n">
         <v>19.6</v>
@@ -7498,13 +7494,13 @@
         <v>19.6</v>
       </c>
       <c r="E202" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F202" t="n">
-        <v>20</v>
+        <v>87363.10390204001</v>
       </c>
       <c r="G202" t="n">
-        <v>19.6033333333333</v>
+        <v>19.60166666666664</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7524,7 +7520,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C203" t="n">
         <v>19.6</v>
@@ -7533,13 +7529,13 @@
         <v>19.6</v>
       </c>
       <c r="E203" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F203" t="n">
-        <v>157394.7193</v>
+        <v>20</v>
       </c>
       <c r="G203" t="n">
-        <v>19.60499999999997</v>
+        <v>19.6033333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7571,10 +7567,10 @@
         <v>19.6</v>
       </c>
       <c r="F204" t="n">
-        <v>51041.25</v>
+        <v>157394.7193</v>
       </c>
       <c r="G204" t="n">
-        <v>19.60666666666663</v>
+        <v>19.60499999999997</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7606,10 +7602,10 @@
         <v>19.6</v>
       </c>
       <c r="F205" t="n">
-        <v>268690.7018</v>
+        <v>51041.25</v>
       </c>
       <c r="G205" t="n">
-        <v>19.6083333333333</v>
+        <v>19.60666666666663</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7641,10 +7637,10 @@
         <v>19.6</v>
       </c>
       <c r="F206" t="n">
-        <v>324308.2755</v>
+        <v>268690.7018</v>
       </c>
       <c r="G206" t="n">
-        <v>19.60999999999996</v>
+        <v>19.6083333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7676,10 +7672,10 @@
         <v>19.6</v>
       </c>
       <c r="F207" t="n">
-        <v>71428.5714</v>
+        <v>324308.2755</v>
       </c>
       <c r="G207" t="n">
-        <v>19.61166666666663</v>
+        <v>19.60999999999996</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7699,19 +7695,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C208" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D208" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E208" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F208" t="n">
-        <v>54.5411</v>
+        <v>71428.5714</v>
       </c>
       <c r="G208" t="n">
         <v>19.61166666666663</v>
@@ -7746,7 +7742,7 @@
         <v>19.5</v>
       </c>
       <c r="F209" t="n">
-        <v>15650.8283</v>
+        <v>54.5411</v>
       </c>
       <c r="G209" t="n">
         <v>19.61166666666663</v>
@@ -7781,7 +7777,7 @@
         <v>19.5</v>
       </c>
       <c r="F210" t="n">
-        <v>850</v>
+        <v>15650.8283</v>
       </c>
       <c r="G210" t="n">
         <v>19.61166666666663</v>
@@ -7804,22 +7800,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C211" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D211" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E211" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F211" t="n">
-        <v>30709</v>
+        <v>850</v>
       </c>
       <c r="G211" t="n">
-        <v>19.61333333333329</v>
+        <v>19.61166666666663</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7839,7 +7835,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C212" t="n">
         <v>19.6</v>
@@ -7848,13 +7844,13 @@
         <v>19.6</v>
       </c>
       <c r="E212" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F212" t="n">
-        <v>166464.6261</v>
+        <v>30709</v>
       </c>
       <c r="G212" t="n">
-        <v>19.61499999999996</v>
+        <v>19.61333333333329</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7874,7 +7870,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C213" t="n">
         <v>19.6</v>
@@ -7883,13 +7879,13 @@
         <v>19.6</v>
       </c>
       <c r="E213" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F213" t="n">
-        <v>22302.0408</v>
+        <v>166464.6261</v>
       </c>
       <c r="G213" t="n">
-        <v>19.61666666666662</v>
+        <v>19.61499999999996</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7921,7 +7917,7 @@
         <v>19.6</v>
       </c>
       <c r="F214" t="n">
-        <v>73352</v>
+        <v>22302.0408</v>
       </c>
       <c r="G214" t="n">
         <v>19.61666666666662</v>
@@ -7956,7 +7952,7 @@
         <v>19.6</v>
       </c>
       <c r="F215" t="n">
-        <v>7777</v>
+        <v>73352</v>
       </c>
       <c r="G215" t="n">
         <v>19.61666666666662</v>
@@ -7991,7 +7987,7 @@
         <v>19.6</v>
       </c>
       <c r="F216" t="n">
-        <v>28950.4081</v>
+        <v>7777</v>
       </c>
       <c r="G216" t="n">
         <v>19.61666666666662</v>
@@ -8026,7 +8022,7 @@
         <v>19.6</v>
       </c>
       <c r="F217" t="n">
-        <v>430086.5306</v>
+        <v>28950.4081</v>
       </c>
       <c r="G217" t="n">
         <v>19.61666666666662</v>
@@ -8061,7 +8057,7 @@
         <v>19.6</v>
       </c>
       <c r="F218" t="n">
-        <v>56586.5407</v>
+        <v>430086.5306</v>
       </c>
       <c r="G218" t="n">
         <v>19.61666666666662</v>
@@ -8096,10 +8092,10 @@
         <v>19.6</v>
       </c>
       <c r="F219" t="n">
-        <v>1680</v>
+        <v>56586.5407</v>
       </c>
       <c r="G219" t="n">
-        <v>19.61499999999996</v>
+        <v>19.61666666666662</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8119,22 +8115,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C220" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D220" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E220" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F220" t="n">
-        <v>15608.6802</v>
+        <v>1680</v>
       </c>
       <c r="G220" t="n">
-        <v>19.61666666666662</v>
+        <v>19.61499999999996</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8166,10 +8162,10 @@
         <v>19.7</v>
       </c>
       <c r="F221" t="n">
-        <v>50761.4213</v>
+        <v>15608.6802</v>
       </c>
       <c r="G221" t="n">
-        <v>19.61833333333329</v>
+        <v>19.61666666666662</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8189,22 +8185,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C222" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D222" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E222" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F222" t="n">
-        <v>69095.71550000001</v>
+        <v>50761.4213</v>
       </c>
       <c r="G222" t="n">
-        <v>19.61999999999996</v>
+        <v>19.61833333333329</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8224,19 +8220,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C223" t="n">
         <v>19.6</v>
       </c>
       <c r="D223" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E223" t="n">
         <v>19.6</v>
       </c>
       <c r="F223" t="n">
-        <v>20972.5</v>
+        <v>69095.71550000001</v>
       </c>
       <c r="G223" t="n">
         <v>19.61999999999996</v>
@@ -8259,19 +8255,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C224" t="n">
         <v>19.6</v>
       </c>
       <c r="D224" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E224" t="n">
         <v>19.6</v>
       </c>
       <c r="F224" t="n">
-        <v>169800</v>
+        <v>20972.5</v>
       </c>
       <c r="G224" t="n">
         <v>19.61999999999996</v>
@@ -8306,7 +8302,7 @@
         <v>19.6</v>
       </c>
       <c r="F225" t="n">
-        <v>31139.9764</v>
+        <v>169800</v>
       </c>
       <c r="G225" t="n">
         <v>19.61999999999996</v>
@@ -8341,7 +8337,7 @@
         <v>19.6</v>
       </c>
       <c r="F226" t="n">
-        <v>4911.1056</v>
+        <v>31139.9764</v>
       </c>
       <c r="G226" t="n">
         <v>19.61999999999996</v>
@@ -8376,7 +8372,7 @@
         <v>19.6</v>
       </c>
       <c r="F227" t="n">
-        <v>6714.832</v>
+        <v>4911.1056</v>
       </c>
       <c r="G227" t="n">
         <v>19.61999999999996</v>
@@ -8399,22 +8395,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C228" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D228" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E228" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F228" t="n">
-        <v>111.01522842</v>
+        <v>6714.832</v>
       </c>
       <c r="G228" t="n">
-        <v>19.62166666666663</v>
+        <v>19.61999999999996</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8446,10 +8442,10 @@
         <v>19.7</v>
       </c>
       <c r="F229" t="n">
-        <v>375700.1015</v>
+        <v>111.01522842</v>
       </c>
       <c r="G229" t="n">
-        <v>19.6233333333333</v>
+        <v>19.62166666666663</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8481,7 +8477,7 @@
         <v>19.7</v>
       </c>
       <c r="F230" t="n">
-        <v>3116.7765</v>
+        <v>375700.1015</v>
       </c>
       <c r="G230" t="n">
         <v>19.6233333333333</v>
@@ -8516,7 +8512,7 @@
         <v>19.7</v>
       </c>
       <c r="F231" t="n">
-        <v>120724.6673</v>
+        <v>3116.7765</v>
       </c>
       <c r="G231" t="n">
         <v>19.6233333333333</v>
@@ -8551,7 +8547,7 @@
         <v>19.7</v>
       </c>
       <c r="F232" t="n">
-        <v>100000</v>
+        <v>120724.6673</v>
       </c>
       <c r="G232" t="n">
         <v>19.6233333333333</v>
@@ -8586,7 +8582,7 @@
         <v>19.7</v>
       </c>
       <c r="F233" t="n">
-        <v>66369.39079999999</v>
+        <v>100000</v>
       </c>
       <c r="G233" t="n">
         <v>19.6233333333333</v>
@@ -8621,7 +8617,7 @@
         <v>19.7</v>
       </c>
       <c r="F234" t="n">
-        <v>10</v>
+        <v>66369.39079999999</v>
       </c>
       <c r="G234" t="n">
         <v>19.6233333333333</v>
@@ -8644,22 +8640,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C235" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D235" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E235" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F235" t="n">
-        <v>16585.235</v>
+        <v>10</v>
       </c>
       <c r="G235" t="n">
-        <v>19.62166666666663</v>
+        <v>19.6233333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8691,10 +8687,10 @@
         <v>19.6</v>
       </c>
       <c r="F236" t="n">
-        <v>59601.4152</v>
+        <v>16585.235</v>
       </c>
       <c r="G236" t="n">
-        <v>19.61999999999996</v>
+        <v>19.62166666666663</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8714,22 +8710,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C237" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D237" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E237" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F237" t="n">
-        <v>3580.3553</v>
+        <v>59601.4152</v>
       </c>
       <c r="G237" t="n">
-        <v>19.62166666666663</v>
+        <v>19.61999999999996</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8749,22 +8745,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C238" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D238" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E238" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F238" t="n">
-        <v>19487.9108</v>
+        <v>3580.3553</v>
       </c>
       <c r="G238" t="n">
-        <v>19.61999999999996</v>
+        <v>19.62166666666663</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8796,10 +8792,10 @@
         <v>19.6</v>
       </c>
       <c r="F239" t="n">
-        <v>163699.6292</v>
+        <v>19487.9108</v>
       </c>
       <c r="G239" t="n">
-        <v>19.61833333333329</v>
+        <v>19.61999999999996</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8831,10 +8827,10 @@
         <v>19.6</v>
       </c>
       <c r="F240" t="n">
-        <v>105300</v>
+        <v>163699.6292</v>
       </c>
       <c r="G240" t="n">
-        <v>19.61666666666662</v>
+        <v>19.61833333333329</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8866,10 +8862,10 @@
         <v>19.6</v>
       </c>
       <c r="F241" t="n">
-        <v>200000</v>
+        <v>105300</v>
       </c>
       <c r="G241" t="n">
-        <v>19.61499999999995</v>
+        <v>19.61666666666662</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8892,19 +8888,19 @@
         <v>19.6</v>
       </c>
       <c r="C242" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D242" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E242" t="n">
         <v>19.6</v>
       </c>
       <c r="F242" t="n">
-        <v>69494.1755</v>
+        <v>200000</v>
       </c>
       <c r="G242" t="n">
-        <v>19.61666666666662</v>
+        <v>19.61499999999995</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8927,16 +8923,16 @@
         <v>19.6</v>
       </c>
       <c r="C243" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D243" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E243" t="n">
         <v>19.6</v>
       </c>
       <c r="F243" t="n">
-        <v>9498.706200000001</v>
+        <v>69494.1755</v>
       </c>
       <c r="G243" t="n">
         <v>19.61666666666662</v>
@@ -8971,7 +8967,7 @@
         <v>19.6</v>
       </c>
       <c r="F244" t="n">
-        <v>39997.4111</v>
+        <v>9498.706200000001</v>
       </c>
       <c r="G244" t="n">
         <v>19.61666666666662</v>
@@ -9006,10 +9002,10 @@
         <v>19.6</v>
       </c>
       <c r="F245" t="n">
-        <v>10152.2842</v>
+        <v>39997.4111</v>
       </c>
       <c r="G245" t="n">
-        <v>19.61499999999995</v>
+        <v>19.61666666666662</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9038,13 +9034,13 @@
         <v>19.6</v>
       </c>
       <c r="E246" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F246" t="n">
-        <v>334283.87347755</v>
+        <v>10152.2842</v>
       </c>
       <c r="G246" t="n">
-        <v>19.61333333333328</v>
+        <v>19.61499999999995</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9067,7 +9063,7 @@
         <v>19.6</v>
       </c>
       <c r="C247" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D247" t="n">
         <v>19.6</v>
@@ -9076,10 +9072,10 @@
         <v>19.5</v>
       </c>
       <c r="F247" t="n">
-        <v>27016.02040204</v>
+        <v>334283.87347755</v>
       </c>
       <c r="G247" t="n">
-        <v>19.61166666666662</v>
+        <v>19.61333333333328</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9099,22 +9095,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C248" t="n">
         <v>19.5</v>
       </c>
       <c r="D248" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E248" t="n">
         <v>19.5</v>
       </c>
       <c r="F248" t="n">
-        <v>740.2837</v>
+        <v>27016.02040204</v>
       </c>
       <c r="G248" t="n">
-        <v>19.60999999999995</v>
+        <v>19.61166666666662</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9137,16 +9133,16 @@
         <v>19.5</v>
       </c>
       <c r="C249" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D249" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E249" t="n">
         <v>19.5</v>
       </c>
       <c r="F249" t="n">
-        <v>989217.4118</v>
+        <v>740.2837</v>
       </c>
       <c r="G249" t="n">
         <v>19.60999999999995</v>
@@ -9169,7 +9165,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C250" t="n">
         <v>19.6</v>
@@ -9178,10 +9174,10 @@
         <v>19.6</v>
       </c>
       <c r="E250" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F250" t="n">
-        <v>22267.704</v>
+        <v>989217.4118</v>
       </c>
       <c r="G250" t="n">
         <v>19.60999999999995</v>
@@ -9216,7 +9212,7 @@
         <v>19.6</v>
       </c>
       <c r="F251" t="n">
-        <v>3000.6502</v>
+        <v>22267.704</v>
       </c>
       <c r="G251" t="n">
         <v>19.60999999999995</v>
@@ -9251,10 +9247,10 @@
         <v>19.6</v>
       </c>
       <c r="F252" t="n">
-        <v>1500</v>
+        <v>3000.6502</v>
       </c>
       <c r="G252" t="n">
-        <v>19.60833333333328</v>
+        <v>19.60999999999995</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9286,10 +9282,10 @@
         <v>19.6</v>
       </c>
       <c r="F253" t="n">
-        <v>510.204</v>
+        <v>1500</v>
       </c>
       <c r="G253" t="n">
-        <v>19.60666666666662</v>
+        <v>19.60833333333328</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9309,22 +9305,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C254" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D254" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E254" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F254" t="n">
-        <v>51292.8461</v>
+        <v>510.204</v>
       </c>
       <c r="G254" t="n">
-        <v>19.60499999999995</v>
+        <v>19.60666666666662</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9356,10 +9352,10 @@
         <v>19.5</v>
       </c>
       <c r="F255" t="n">
-        <v>30000</v>
+        <v>51292.8461</v>
       </c>
       <c r="G255" t="n">
-        <v>19.60333333333329</v>
+        <v>19.60499999999995</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9379,22 +9375,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C256" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D256" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E256" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F256" t="n">
-        <v>34264.0648</v>
+        <v>30000</v>
       </c>
       <c r="G256" t="n">
-        <v>19.60499999999995</v>
+        <v>19.60333333333329</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9426,7 +9422,7 @@
         <v>19.6</v>
       </c>
       <c r="F257" t="n">
-        <v>39454.807</v>
+        <v>34264.0648</v>
       </c>
       <c r="G257" t="n">
         <v>19.60499999999995</v>
@@ -9461,10 +9457,10 @@
         <v>19.6</v>
       </c>
       <c r="F258" t="n">
-        <v>36300</v>
+        <v>39454.807</v>
       </c>
       <c r="G258" t="n">
-        <v>19.60666666666662</v>
+        <v>19.60499999999995</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9496,7 +9492,7 @@
         <v>19.6</v>
       </c>
       <c r="F259" t="n">
-        <v>38403.3</v>
+        <v>36300</v>
       </c>
       <c r="G259" t="n">
         <v>19.60666666666662</v>
@@ -9531,7 +9527,7 @@
         <v>19.6</v>
       </c>
       <c r="F260" t="n">
-        <v>158.46938775</v>
+        <v>38403.3</v>
       </c>
       <c r="G260" t="n">
         <v>19.60666666666662</v>
@@ -9554,7 +9550,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C261" t="n">
         <v>19.6</v>
@@ -9563,10 +9559,10 @@
         <v>19.6</v>
       </c>
       <c r="E261" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F261" t="n">
-        <v>10222.1342</v>
+        <v>158.46938775</v>
       </c>
       <c r="G261" t="n">
         <v>19.60666666666662</v>
@@ -9592,19 +9588,19 @@
         <v>19.5</v>
       </c>
       <c r="C262" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D262" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E262" t="n">
         <v>19.5</v>
       </c>
       <c r="F262" t="n">
-        <v>17030.3213</v>
+        <v>10222.1342</v>
       </c>
       <c r="G262" t="n">
-        <v>19.60499999999995</v>
+        <v>19.60666666666662</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9636,10 +9632,10 @@
         <v>19.5</v>
       </c>
       <c r="F263" t="n">
-        <v>259.7656</v>
+        <v>17030.3213</v>
       </c>
       <c r="G263" t="n">
-        <v>19.60333333333329</v>
+        <v>19.60499999999995</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9659,19 +9655,19 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C264" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D264" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E264" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F264" t="n">
-        <v>2320.8673</v>
+        <v>259.7656</v>
       </c>
       <c r="G264" t="n">
         <v>19.60333333333329</v>
@@ -9706,7 +9702,7 @@
         <v>19.6</v>
       </c>
       <c r="F265" t="n">
-        <v>153.0612</v>
+        <v>2320.8673</v>
       </c>
       <c r="G265" t="n">
         <v>19.60333333333329</v>
@@ -9741,7 +9737,7 @@
         <v>19.6</v>
       </c>
       <c r="F266" t="n">
-        <v>3437.8571</v>
+        <v>153.0612</v>
       </c>
       <c r="G266" t="n">
         <v>19.60333333333329</v>
@@ -9764,22 +9760,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F267" t="n">
-        <v>51.8134</v>
+        <v>3437.8571</v>
       </c>
       <c r="G267" t="n">
-        <v>19.60166666666662</v>
+        <v>19.60333333333329</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9811,7 +9807,7 @@
         <v>19.5</v>
       </c>
       <c r="F268" t="n">
-        <v>23730.4584</v>
+        <v>51.8134</v>
       </c>
       <c r="G268" t="n">
         <v>19.60166666666662</v>
@@ -9846,7 +9842,7 @@
         <v>19.5</v>
       </c>
       <c r="F269" t="n">
-        <v>5140.6816</v>
+        <v>23730.4584</v>
       </c>
       <c r="G269" t="n">
         <v>19.60166666666662</v>
@@ -9869,22 +9865,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C270" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D270" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E270" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F270" t="n">
-        <v>200.45918367</v>
+        <v>5140.6816</v>
       </c>
       <c r="G270" t="n">
-        <v>19.60333333333329</v>
+        <v>19.60166666666662</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9916,7 +9912,7 @@
         <v>19.6</v>
       </c>
       <c r="F271" t="n">
-        <v>5104.8979</v>
+        <v>200.45918367</v>
       </c>
       <c r="G271" t="n">
         <v>19.60333333333329</v>
@@ -9939,22 +9935,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C272" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D272" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E272" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F272" t="n">
-        <v>69.7786</v>
+        <v>5104.8979</v>
       </c>
       <c r="G272" t="n">
-        <v>19.60166666666662</v>
+        <v>19.60333333333329</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9986,10 +9982,10 @@
         <v>19.5</v>
       </c>
       <c r="F273" t="n">
-        <v>155424.4625</v>
+        <v>69.7786</v>
       </c>
       <c r="G273" t="n">
-        <v>19.59999999999996</v>
+        <v>19.60166666666662</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10009,19 +10005,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C274" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D274" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E274" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F274" t="n">
-        <v>15663.2653</v>
+        <v>155424.4625</v>
       </c>
       <c r="G274" t="n">
         <v>19.59999999999996</v>
@@ -10056,7 +10052,7 @@
         <v>19.6</v>
       </c>
       <c r="F275" t="n">
-        <v>1015</v>
+        <v>15663.2653</v>
       </c>
       <c r="G275" t="n">
         <v>19.59999999999996</v>
@@ -10091,7 +10087,7 @@
         <v>19.6</v>
       </c>
       <c r="F276" t="n">
-        <v>153.0612</v>
+        <v>1015</v>
       </c>
       <c r="G276" t="n">
         <v>19.59999999999996</v>
@@ -10126,7 +10122,7 @@
         <v>19.6</v>
       </c>
       <c r="F277" t="n">
-        <v>10</v>
+        <v>153.0612</v>
       </c>
       <c r="G277" t="n">
         <v>19.59999999999996</v>
@@ -10161,7 +10157,7 @@
         <v>19.6</v>
       </c>
       <c r="F278" t="n">
-        <v>15.7653</v>
+        <v>10</v>
       </c>
       <c r="G278" t="n">
         <v>19.59999999999996</v>
@@ -10196,7 +10192,7 @@
         <v>19.6</v>
       </c>
       <c r="F279" t="n">
-        <v>10</v>
+        <v>15.7653</v>
       </c>
       <c r="G279" t="n">
         <v>19.59999999999996</v>
@@ -10231,10 +10227,10 @@
         <v>19.6</v>
       </c>
       <c r="F280" t="n">
-        <v>1000.4591</v>
+        <v>10</v>
       </c>
       <c r="G280" t="n">
-        <v>19.59833333333329</v>
+        <v>19.59999999999996</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10254,22 +10250,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C281" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D281" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E281" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F281" t="n">
-        <v>8000</v>
+        <v>1000.4591</v>
       </c>
       <c r="G281" t="n">
-        <v>19.59499999999995</v>
+        <v>19.59833333333329</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10301,10 +10297,10 @@
         <v>19.5</v>
       </c>
       <c r="F282" t="n">
-        <v>49.925</v>
+        <v>8000</v>
       </c>
       <c r="G282" t="n">
-        <v>19.59333333333329</v>
+        <v>19.59499999999995</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10324,19 +10320,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C283" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D283" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E283" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F283" t="n">
-        <v>128.0612</v>
+        <v>49.925</v>
       </c>
       <c r="G283" t="n">
         <v>19.59333333333329</v>
@@ -10359,22 +10355,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C284" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D284" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E284" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F284" t="n">
-        <v>1073858.4699</v>
+        <v>128.0612</v>
       </c>
       <c r="G284" t="n">
-        <v>19.59166666666662</v>
+        <v>19.59333333333329</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10406,10 +10402,10 @@
         <v>19.5</v>
       </c>
       <c r="F285" t="n">
-        <v>38780.14</v>
+        <v>1073858.4699</v>
       </c>
       <c r="G285" t="n">
-        <v>19.58999999999996</v>
+        <v>19.59166666666662</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10441,10 +10437,10 @@
         <v>19.5</v>
       </c>
       <c r="F286" t="n">
-        <v>83842</v>
+        <v>38780.14</v>
       </c>
       <c r="G286" t="n">
-        <v>19.58833333333329</v>
+        <v>19.58999999999996</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10476,10 +10472,10 @@
         <v>19.5</v>
       </c>
       <c r="F287" t="n">
-        <v>21010.9859</v>
+        <v>83842</v>
       </c>
       <c r="G287" t="n">
-        <v>19.58666666666663</v>
+        <v>19.58833333333329</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10511,10 +10507,10 @@
         <v>19.5</v>
       </c>
       <c r="F288" t="n">
-        <v>12</v>
+        <v>21010.9859</v>
       </c>
       <c r="G288" t="n">
-        <v>19.58333333333329</v>
+        <v>19.58666666666663</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10546,10 +10542,10 @@
         <v>19.5</v>
       </c>
       <c r="F289" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G289" t="n">
-        <v>19.57999999999996</v>
+        <v>19.58333333333329</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10569,22 +10565,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C290" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D290" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E290" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F290" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G290" t="n">
-        <v>19.57499999999996</v>
+        <v>19.57999999999996</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10616,10 +10612,10 @@
         <v>19.4</v>
       </c>
       <c r="F291" t="n">
-        <v>25576.9231</v>
+        <v>10000</v>
       </c>
       <c r="G291" t="n">
-        <v>19.56999999999996</v>
+        <v>19.57499999999996</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10651,10 +10647,10 @@
         <v>19.4</v>
       </c>
       <c r="F292" t="n">
-        <v>215.8715</v>
+        <v>25576.9231</v>
       </c>
       <c r="G292" t="n">
-        <v>19.56499999999996</v>
+        <v>19.56999999999996</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10686,10 +10682,10 @@
         <v>19.4</v>
       </c>
       <c r="F293" t="n">
-        <v>167219</v>
+        <v>215.8715</v>
       </c>
       <c r="G293" t="n">
-        <v>19.55999999999996</v>
+        <v>19.56499999999996</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10712,19 +10708,19 @@
         <v>19.4</v>
       </c>
       <c r="C294" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D294" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E294" t="n">
         <v>19.4</v>
       </c>
       <c r="F294" t="n">
-        <v>94721.2368</v>
+        <v>167219</v>
       </c>
       <c r="G294" t="n">
-        <v>19.55666666666663</v>
+        <v>19.55999999999996</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10747,19 +10743,19 @@
         <v>19.4</v>
       </c>
       <c r="C295" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D295" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E295" t="n">
         <v>19.4</v>
       </c>
       <c r="F295" t="n">
-        <v>5092.1356</v>
+        <v>94721.2368</v>
       </c>
       <c r="G295" t="n">
-        <v>19.5533333333333</v>
+        <v>19.55666666666663</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10791,10 +10787,10 @@
         <v>19.4</v>
       </c>
       <c r="F296" t="n">
-        <v>151300</v>
+        <v>5092.1356</v>
       </c>
       <c r="G296" t="n">
-        <v>19.54999999999997</v>
+        <v>19.5533333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10826,10 +10822,10 @@
         <v>19.4</v>
       </c>
       <c r="F297" t="n">
-        <v>166737.486</v>
+        <v>151300</v>
       </c>
       <c r="G297" t="n">
-        <v>19.54499999999997</v>
+        <v>19.54999999999997</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10861,10 +10857,10 @@
         <v>19.4</v>
       </c>
       <c r="F298" t="n">
-        <v>191276.1321</v>
+        <v>166737.486</v>
       </c>
       <c r="G298" t="n">
-        <v>19.54166666666664</v>
+        <v>19.54499999999997</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10884,22 +10880,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C299" t="n">
         <v>19.4</v>
       </c>
       <c r="D299" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E299" t="n">
         <v>19.4</v>
       </c>
       <c r="F299" t="n">
-        <v>207878.5493</v>
+        <v>191276.1321</v>
       </c>
       <c r="G299" t="n">
-        <v>19.53833333333331</v>
+        <v>19.54166666666664</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10919,22 +10915,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="C300" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D300" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="E300" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F300" t="n">
-        <v>81305.40640000001</v>
+        <v>207878.5493</v>
       </c>
       <c r="G300" t="n">
-        <v>19.53333333333331</v>
+        <v>19.53833333333331</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10954,22 +10950,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C301" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D301" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E301" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F301" t="n">
-        <v>26809.1</v>
+        <v>81305.40640000001</v>
       </c>
       <c r="G301" t="n">
-        <v>19.52999999999998</v>
+        <v>19.53333333333331</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11001,10 +10997,10 @@
         <v>19.4</v>
       </c>
       <c r="F302" t="n">
-        <v>188110.083</v>
+        <v>26809.1</v>
       </c>
       <c r="G302" t="n">
-        <v>19.52499999999998</v>
+        <v>19.52999999999998</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11036,10 +11032,10 @@
         <v>19.4</v>
       </c>
       <c r="F303" t="n">
-        <v>2940</v>
+        <v>188110.083</v>
       </c>
       <c r="G303" t="n">
-        <v>19.52166666666665</v>
+        <v>19.52499999999998</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11059,22 +11055,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F304" t="n">
-        <v>11000</v>
+        <v>2940</v>
       </c>
       <c r="G304" t="n">
-        <v>19.51999999999998</v>
+        <v>19.52166666666665</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11094,22 +11090,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C305" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D305" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E305" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F305" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="G305" t="n">
-        <v>19.51666666666665</v>
+        <v>19.51999999999998</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11141,10 +11137,10 @@
         <v>19.4</v>
       </c>
       <c r="F306" t="n">
-        <v>58770</v>
+        <v>300</v>
       </c>
       <c r="G306" t="n">
-        <v>19.51333333333332</v>
+        <v>19.51666666666665</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11176,10 +11172,10 @@
         <v>19.4</v>
       </c>
       <c r="F307" t="n">
-        <v>11750</v>
+        <v>58770</v>
       </c>
       <c r="G307" t="n">
-        <v>19.51166666666666</v>
+        <v>19.51333333333332</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11211,10 +11207,10 @@
         <v>19.4</v>
       </c>
       <c r="F308" t="n">
-        <v>10</v>
+        <v>11750</v>
       </c>
       <c r="G308" t="n">
-        <v>19.50999999999999</v>
+        <v>19.51166666666666</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11246,10 +11242,10 @@
         <v>19.4</v>
       </c>
       <c r="F309" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G309" t="n">
-        <v>19.50666666666666</v>
+        <v>19.50999999999999</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11269,22 +11265,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C310" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D310" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E310" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F310" t="n">
-        <v>5000</v>
+        <v>12</v>
       </c>
       <c r="G310" t="n">
-        <v>19.50166666666666</v>
+        <v>19.50666666666666</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11304,22 +11300,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C311" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D311" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E311" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F311" t="n">
-        <v>15282.3999</v>
+        <v>5000</v>
       </c>
       <c r="G311" t="n">
-        <v>19.49833333333333</v>
+        <v>19.50166666666666</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11351,10 +11347,10 @@
         <v>19.4</v>
       </c>
       <c r="F312" t="n">
-        <v>279153.6</v>
+        <v>15282.3999</v>
       </c>
       <c r="G312" t="n">
-        <v>19.495</v>
+        <v>19.49833333333333</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11374,22 +11370,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C313" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D313" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E313" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F313" t="n">
-        <v>51282.05128205</v>
+        <v>279153.6</v>
       </c>
       <c r="G313" t="n">
-        <v>19.49333333333334</v>
+        <v>19.495</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11409,22 +11405,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C314" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D314" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E314" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F314" t="n">
-        <v>12437.5666</v>
+        <v>51282.05128205</v>
       </c>
       <c r="G314" t="n">
-        <v>19.49166666666667</v>
+        <v>19.49333333333334</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11444,19 +11440,19 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C315" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D315" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E315" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F315" t="n">
-        <v>64.6153</v>
+        <v>12437.5666</v>
       </c>
       <c r="G315" t="n">
         <v>19.49166666666667</v>
@@ -11491,10 +11487,10 @@
         <v>19.5</v>
       </c>
       <c r="F316" t="n">
-        <v>85487.7435</v>
+        <v>64.6153</v>
       </c>
       <c r="G316" t="n">
-        <v>19.49000000000001</v>
+        <v>19.49166666666667</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11526,10 +11522,10 @@
         <v>19.5</v>
       </c>
       <c r="F317" t="n">
-        <v>87141.09239999999</v>
+        <v>85487.7435</v>
       </c>
       <c r="G317" t="n">
-        <v>19.48833333333334</v>
+        <v>19.49000000000001</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11561,10 +11557,10 @@
         <v>19.5</v>
       </c>
       <c r="F318" t="n">
-        <v>11274.7665</v>
+        <v>87141.09239999999</v>
       </c>
       <c r="G318" t="n">
-        <v>19.48666666666668</v>
+        <v>19.48833333333334</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11596,10 +11592,10 @@
         <v>19.5</v>
       </c>
       <c r="F319" t="n">
-        <v>42089.5369</v>
+        <v>11274.7665</v>
       </c>
       <c r="G319" t="n">
-        <v>19.48500000000001</v>
+        <v>19.48666666666668</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11631,10 +11627,10 @@
         <v>19.5</v>
       </c>
       <c r="F320" t="n">
-        <v>217165.3074</v>
+        <v>42089.5369</v>
       </c>
       <c r="G320" t="n">
-        <v>19.48333333333334</v>
+        <v>19.48500000000001</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11666,10 +11662,10 @@
         <v>19.5</v>
       </c>
       <c r="F321" t="n">
-        <v>65350.0908</v>
+        <v>217165.3074</v>
       </c>
       <c r="G321" t="n">
-        <v>19.48166666666668</v>
+        <v>19.48333333333334</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11701,7 +11697,7 @@
         <v>19.5</v>
       </c>
       <c r="F322" t="n">
-        <v>12953.0826</v>
+        <v>65350.0908</v>
       </c>
       <c r="G322" t="n">
         <v>19.48166666666668</v>
@@ -11724,7 +11720,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C323" t="n">
         <v>19.5</v>
@@ -11733,10 +11729,10 @@
         <v>19.5</v>
       </c>
       <c r="E323" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F323" t="n">
-        <v>208763.44</v>
+        <v>12953.0826</v>
       </c>
       <c r="G323" t="n">
         <v>19.48166666666668</v>
@@ -11759,7 +11755,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C324" t="n">
         <v>19.5</v>
@@ -11768,13 +11764,13 @@
         <v>19.5</v>
       </c>
       <c r="E324" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F324" t="n">
-        <v>10224.2051</v>
+        <v>208763.44</v>
       </c>
       <c r="G324" t="n">
-        <v>19.48000000000001</v>
+        <v>19.48166666666668</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11806,10 +11802,10 @@
         <v>19.5</v>
       </c>
       <c r="F325" t="n">
-        <v>283909</v>
+        <v>10224.2051</v>
       </c>
       <c r="G325" t="n">
-        <v>19.47833333333335</v>
+        <v>19.48000000000001</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11841,10 +11837,10 @@
         <v>19.5</v>
       </c>
       <c r="F326" t="n">
-        <v>3120</v>
+        <v>283909</v>
       </c>
       <c r="G326" t="n">
-        <v>19.47666666666668</v>
+        <v>19.47833333333335</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11876,7 +11872,7 @@
         <v>19.5</v>
       </c>
       <c r="F327" t="n">
-        <v>3032.923</v>
+        <v>3120</v>
       </c>
       <c r="G327" t="n">
         <v>19.47666666666668</v>
@@ -11911,7 +11907,7 @@
         <v>19.5</v>
       </c>
       <c r="F328" t="n">
-        <v>172</v>
+        <v>3032.923</v>
       </c>
       <c r="G328" t="n">
         <v>19.47666666666668</v>
@@ -11934,22 +11930,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C329" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D329" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E329" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F329" t="n">
-        <v>997.9579</v>
+        <v>172</v>
       </c>
       <c r="G329" t="n">
-        <v>19.47500000000002</v>
+        <v>19.47666666666668</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11981,10 +11977,10 @@
         <v>19.4</v>
       </c>
       <c r="F330" t="n">
-        <v>58454.3429</v>
+        <v>997.9579</v>
       </c>
       <c r="G330" t="n">
-        <v>19.47166666666669</v>
+        <v>19.47500000000002</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -12004,22 +12000,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C331" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D331" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E331" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F331" t="n">
-        <v>76923.0769</v>
+        <v>58454.3429</v>
       </c>
       <c r="G331" t="n">
-        <v>19.47000000000002</v>
+        <v>19.47166666666669</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12051,7 +12047,7 @@
         <v>19.5</v>
       </c>
       <c r="F332" t="n">
-        <v>143</v>
+        <v>76923.0769</v>
       </c>
       <c r="G332" t="n">
         <v>19.47000000000002</v>
@@ -12077,19 +12073,19 @@
         <v>19.5</v>
       </c>
       <c r="C333" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D333" t="n">
         <v>19.5</v>
       </c>
       <c r="E333" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F333" t="n">
-        <v>15264.4176</v>
+        <v>143</v>
       </c>
       <c r="G333" t="n">
-        <v>19.46833333333336</v>
+        <v>19.47000000000002</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12112,19 +12108,19 @@
         <v>19.5</v>
       </c>
       <c r="C334" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D334" t="n">
         <v>19.5</v>
       </c>
       <c r="E334" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F334" t="n">
-        <v>23510</v>
+        <v>15264.4176</v>
       </c>
       <c r="G334" t="n">
-        <v>19.46666666666669</v>
+        <v>19.46833333333336</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12156,10 +12152,10 @@
         <v>19.5</v>
       </c>
       <c r="F335" t="n">
-        <v>1092.2332</v>
+        <v>23510</v>
       </c>
       <c r="G335" t="n">
-        <v>19.46500000000003</v>
+        <v>19.46666666666669</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12179,19 +12175,19 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C336" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D336" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E336" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F336" t="n">
-        <v>16</v>
+        <v>1092.2332</v>
       </c>
       <c r="G336" t="n">
         <v>19.46500000000003</v>
@@ -12226,7 +12222,7 @@
         <v>19.6</v>
       </c>
       <c r="F337" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G337" t="n">
         <v>19.46500000000003</v>
@@ -12261,7 +12257,7 @@
         <v>19.6</v>
       </c>
       <c r="F338" t="n">
-        <v>45986.2754</v>
+        <v>100</v>
       </c>
       <c r="G338" t="n">
         <v>19.46500000000003</v>
@@ -12296,7 +12292,7 @@
         <v>19.6</v>
       </c>
       <c r="F339" t="n">
-        <v>234952.4909</v>
+        <v>45986.2754</v>
       </c>
       <c r="G339" t="n">
         <v>19.46500000000003</v>
@@ -12331,7 +12327,7 @@
         <v>19.6</v>
       </c>
       <c r="F340" t="n">
-        <v>102656.7474</v>
+        <v>234952.4909</v>
       </c>
       <c r="G340" t="n">
         <v>19.46500000000003</v>
@@ -12366,10 +12362,10 @@
         <v>19.6</v>
       </c>
       <c r="F341" t="n">
-        <v>406553.95700816</v>
+        <v>102656.7474</v>
       </c>
       <c r="G341" t="n">
-        <v>19.46666666666669</v>
+        <v>19.46500000000003</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12401,10 +12397,10 @@
         <v>19.6</v>
       </c>
       <c r="F342" t="n">
-        <v>6318.4183</v>
+        <v>406553.95700816</v>
       </c>
       <c r="G342" t="n">
-        <v>19.46833333333336</v>
+        <v>19.46666666666669</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12436,7 +12432,7 @@
         <v>19.6</v>
       </c>
       <c r="F343" t="n">
-        <v>3158.6285</v>
+        <v>6318.4183</v>
       </c>
       <c r="G343" t="n">
         <v>19.46833333333336</v>
@@ -12471,10 +12467,10 @@
         <v>19.6</v>
       </c>
       <c r="F344" t="n">
-        <v>347757.2053</v>
+        <v>3158.6285</v>
       </c>
       <c r="G344" t="n">
-        <v>19.47000000000002</v>
+        <v>19.46833333333336</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12506,10 +12502,10 @@
         <v>19.6</v>
       </c>
       <c r="F345" t="n">
-        <v>238667.4553</v>
+        <v>347757.2053</v>
       </c>
       <c r="G345" t="n">
-        <v>19.47166666666669</v>
+        <v>19.47000000000002</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12532,19 +12528,19 @@
         <v>19.6</v>
       </c>
       <c r="C346" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D346" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E346" t="n">
         <v>19.6</v>
       </c>
       <c r="F346" t="n">
-        <v>1620</v>
+        <v>238667.4553</v>
       </c>
       <c r="G346" t="n">
-        <v>19.47500000000002</v>
+        <v>19.47166666666669</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12567,19 +12563,19 @@
         <v>19.6</v>
       </c>
       <c r="C347" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D347" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E347" t="n">
         <v>19.6</v>
       </c>
       <c r="F347" t="n">
-        <v>47959.1836</v>
+        <v>1620</v>
       </c>
       <c r="G347" t="n">
-        <v>19.47666666666669</v>
+        <v>19.47500000000002</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12599,19 +12595,19 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C348" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D348" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E348" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F348" t="n">
-        <v>8485.58</v>
+        <v>47959.1836</v>
       </c>
       <c r="G348" t="n">
         <v>19.47666666666669</v>
@@ -12634,19 +12630,19 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C349" t="n">
         <v>19.5</v>
       </c>
       <c r="D349" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E349" t="n">
         <v>19.5</v>
       </c>
       <c r="F349" t="n">
-        <v>28811.257</v>
+        <v>8485.58</v>
       </c>
       <c r="G349" t="n">
         <v>19.47666666666669</v>
@@ -12669,22 +12665,22 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C350" t="n">
         <v>19.5</v>
       </c>
       <c r="D350" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E350" t="n">
         <v>19.5</v>
       </c>
       <c r="F350" t="n">
-        <v>424074.9748</v>
+        <v>28811.257</v>
       </c>
       <c r="G350" t="n">
-        <v>19.47833333333335</v>
+        <v>19.47666666666669</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -12716,10 +12712,10 @@
         <v>19.5</v>
       </c>
       <c r="F351" t="n">
-        <v>222159.4316</v>
+        <v>424074.9748</v>
       </c>
       <c r="G351" t="n">
-        <v>19.48000000000002</v>
+        <v>19.47833333333335</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -12751,10 +12747,10 @@
         <v>19.5</v>
       </c>
       <c r="F352" t="n">
-        <v>243824.2083</v>
+        <v>222159.4316</v>
       </c>
       <c r="G352" t="n">
-        <v>19.48166666666668</v>
+        <v>19.48000000000002</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -12786,10 +12782,10 @@
         <v>19.5</v>
       </c>
       <c r="F353" t="n">
-        <v>20</v>
+        <v>243824.2083</v>
       </c>
       <c r="G353" t="n">
-        <v>19.48333333333335</v>
+        <v>19.48166666666668</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -12821,7 +12817,7 @@
         <v>19.5</v>
       </c>
       <c r="F354" t="n">
-        <v>34400</v>
+        <v>20</v>
       </c>
       <c r="G354" t="n">
         <v>19.48333333333335</v>
@@ -12856,10 +12852,10 @@
         <v>19.5</v>
       </c>
       <c r="F355" t="n">
-        <v>61764.3349</v>
+        <v>34400</v>
       </c>
       <c r="G355" t="n">
-        <v>19.48500000000001</v>
+        <v>19.48333333333335</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -12879,22 +12875,22 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C356" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D356" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E356" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F356" t="n">
-        <v>21383.3163</v>
+        <v>61764.3349</v>
       </c>
       <c r="G356" t="n">
-        <v>19.48833333333334</v>
+        <v>19.48500000000001</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -12914,22 +12910,22 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C357" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D357" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E357" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F357" t="n">
-        <v>2420.5</v>
+        <v>21383.3163</v>
       </c>
       <c r="G357" t="n">
-        <v>19.49000000000001</v>
+        <v>19.48833333333334</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -12961,10 +12957,10 @@
         <v>19.5</v>
       </c>
       <c r="F358" t="n">
-        <v>110100.1122</v>
+        <v>2420.5</v>
       </c>
       <c r="G358" t="n">
-        <v>19.49166666666667</v>
+        <v>19.49000000000001</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -12984,22 +12980,22 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C359" t="n">
         <v>19.5</v>
       </c>
       <c r="D359" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E359" t="n">
         <v>19.5</v>
       </c>
       <c r="F359" t="n">
-        <v>856.9</v>
+        <v>110100.1122</v>
       </c>
       <c r="G359" t="n">
-        <v>19.49333333333334</v>
+        <v>19.49166666666667</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -13019,22 +13015,22 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C360" t="n">
         <v>19.5</v>
       </c>
       <c r="D360" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E360" t="n">
         <v>19.5</v>
       </c>
       <c r="F360" t="n">
-        <v>180996.741</v>
+        <v>856.9</v>
       </c>
       <c r="G360" t="n">
-        <v>19.49666666666667</v>
+        <v>19.49333333333334</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -13066,10 +13062,10 @@
         <v>19.5</v>
       </c>
       <c r="F361" t="n">
-        <v>26158.8</v>
+        <v>180996.741</v>
       </c>
       <c r="G361" t="n">
-        <v>19.49833333333334</v>
+        <v>19.49666666666667</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -13101,10 +13097,10 @@
         <v>19.5</v>
       </c>
       <c r="F362" t="n">
-        <v>13204.7402</v>
+        <v>26158.8</v>
       </c>
       <c r="G362" t="n">
-        <v>19.5</v>
+        <v>19.49833333333334</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -13136,10 +13132,10 @@
         <v>19.5</v>
       </c>
       <c r="F363" t="n">
-        <v>23887.3865</v>
+        <v>13204.7402</v>
       </c>
       <c r="G363" t="n">
-        <v>19.50166666666667</v>
+        <v>19.5</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -13171,7 +13167,7 @@
         <v>19.5</v>
       </c>
       <c r="F364" t="n">
-        <v>1539.3481</v>
+        <v>23887.3865</v>
       </c>
       <c r="G364" t="n">
         <v>19.50166666666667</v>
@@ -13206,10 +13202,10 @@
         <v>19.5</v>
       </c>
       <c r="F365" t="n">
-        <v>274033.9651</v>
+        <v>1539.3481</v>
       </c>
       <c r="G365" t="n">
-        <v>19.50333333333333</v>
+        <v>19.50166666666667</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -13229,19 +13225,19 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C366" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D366" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E366" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F366" t="n">
-        <v>18656.35</v>
+        <v>274033.9651</v>
       </c>
       <c r="G366" t="n">
         <v>19.50333333333333</v>
@@ -13276,7 +13272,7 @@
         <v>19.4</v>
       </c>
       <c r="F367" t="n">
-        <v>42738.7765</v>
+        <v>18656.35</v>
       </c>
       <c r="G367" t="n">
         <v>19.50333333333333</v>
@@ -13299,22 +13295,22 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C368" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D368" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E368" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F368" t="n">
-        <v>630564.7022000001</v>
+        <v>42738.7765</v>
       </c>
       <c r="G368" t="n">
-        <v>19.505</v>
+        <v>19.50333333333333</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -13346,10 +13342,10 @@
         <v>19.5</v>
       </c>
       <c r="F369" t="n">
-        <v>394549.2602</v>
+        <v>630564.7022000001</v>
       </c>
       <c r="G369" t="n">
-        <v>19.50666666666666</v>
+        <v>19.505</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -13381,10 +13377,10 @@
         <v>19.5</v>
       </c>
       <c r="F370" t="n">
-        <v>2828.6666</v>
+        <v>394549.2602</v>
       </c>
       <c r="G370" t="n">
-        <v>19.51</v>
+        <v>19.50666666666666</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -13416,10 +13412,10 @@
         <v>19.5</v>
       </c>
       <c r="F371" t="n">
-        <v>2000</v>
+        <v>2828.6666</v>
       </c>
       <c r="G371" t="n">
-        <v>19.51166666666666</v>
+        <v>19.51</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -13439,19 +13435,19 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C372" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D372" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E372" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F372" t="n">
-        <v>56281.6108</v>
+        <v>2000</v>
       </c>
       <c r="G372" t="n">
         <v>19.51166666666666</v>
@@ -13474,19 +13470,19 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C373" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D373" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E373" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F373" t="n">
-        <v>143729.5522</v>
+        <v>56281.6108</v>
       </c>
       <c r="G373" t="n">
         <v>19.51166666666666</v>
@@ -13521,10 +13517,10 @@
         <v>19.5</v>
       </c>
       <c r="F374" t="n">
-        <v>39800</v>
+        <v>143729.5522</v>
       </c>
       <c r="G374" t="n">
-        <v>19.51333333333333</v>
+        <v>19.51166666666666</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -13544,22 +13540,22 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C375" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D375" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E375" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F375" t="n">
-        <v>3547.1925</v>
+        <v>39800</v>
       </c>
       <c r="G375" t="n">
-        <v>19.51166666666666</v>
+        <v>19.51333333333333</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -13591,10 +13587,10 @@
         <v>19.4</v>
       </c>
       <c r="F376" t="n">
-        <v>192446.2275</v>
+        <v>3547.1925</v>
       </c>
       <c r="G376" t="n">
-        <v>19.51</v>
+        <v>19.51166666666666</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -13626,10 +13622,10 @@
         <v>19.4</v>
       </c>
       <c r="F377" t="n">
-        <v>79900</v>
+        <v>192446.2275</v>
       </c>
       <c r="G377" t="n">
-        <v>19.50833333333333</v>
+        <v>19.51</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -13661,10 +13657,10 @@
         <v>19.4</v>
       </c>
       <c r="F378" t="n">
-        <v>50540.2658</v>
+        <v>79900</v>
       </c>
       <c r="G378" t="n">
-        <v>19.50666666666667</v>
+        <v>19.50833333333333</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -13696,10 +13692,10 @@
         <v>19.4</v>
       </c>
       <c r="F379" t="n">
-        <v>116860.1749</v>
+        <v>50540.2658</v>
       </c>
       <c r="G379" t="n">
-        <v>19.505</v>
+        <v>19.50666666666667</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -13731,10 +13727,10 @@
         <v>19.4</v>
       </c>
       <c r="F380" t="n">
-        <v>335033.0694</v>
+        <v>116860.1749</v>
       </c>
       <c r="G380" t="n">
-        <v>19.50333333333334</v>
+        <v>19.505</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -13766,10 +13762,10 @@
         <v>19.4</v>
       </c>
       <c r="F381" t="n">
-        <v>103951.1544</v>
+        <v>335033.0694</v>
       </c>
       <c r="G381" t="n">
-        <v>19.50166666666667</v>
+        <v>19.50333333333334</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -13792,16 +13788,16 @@
         <v>19.4</v>
       </c>
       <c r="C382" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D382" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E382" t="n">
         <v>19.4</v>
       </c>
       <c r="F382" t="n">
-        <v>213270.6753</v>
+        <v>103951.1544</v>
       </c>
       <c r="G382" t="n">
         <v>19.50166666666667</v>
@@ -13824,7 +13820,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C383" t="n">
         <v>19.5</v>
@@ -13833,10 +13829,10 @@
         <v>19.5</v>
       </c>
       <c r="E383" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F383" t="n">
-        <v>12079.1487</v>
+        <v>213270.6753</v>
       </c>
       <c r="G383" t="n">
         <v>19.50166666666667</v>
@@ -13871,7 +13867,7 @@
         <v>19.5</v>
       </c>
       <c r="F384" t="n">
-        <v>50</v>
+        <v>12079.1487</v>
       </c>
       <c r="G384" t="n">
         <v>19.50166666666667</v>
@@ -13894,22 +13890,22 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C385" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D385" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E385" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F385" t="n">
-        <v>45450.4143</v>
+        <v>50</v>
       </c>
       <c r="G385" t="n">
-        <v>19.50000000000001</v>
+        <v>19.50166666666667</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -13929,19 +13925,19 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C386" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D386" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E386" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F386" t="n">
-        <v>2837.641</v>
+        <v>45450.4143</v>
       </c>
       <c r="G386" t="n">
         <v>19.50000000000001</v>
@@ -13967,19 +13963,19 @@
         <v>19.5</v>
       </c>
       <c r="C387" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D387" t="n">
         <v>19.5</v>
       </c>
       <c r="E387" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F387" t="n">
-        <v>24507.2928</v>
+        <v>2837.641</v>
       </c>
       <c r="G387" t="n">
-        <v>19.49833333333334</v>
+        <v>19.50000000000001</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -13999,22 +13995,22 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C388" t="n">
         <v>19.4</v>
       </c>
       <c r="D388" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E388" t="n">
         <v>19.4</v>
       </c>
       <c r="F388" t="n">
-        <v>127388.535</v>
+        <v>24507.2928</v>
       </c>
       <c r="G388" t="n">
-        <v>19.49666666666668</v>
+        <v>19.49833333333334</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -14034,22 +14030,22 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C389" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D389" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E389" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F389" t="n">
-        <v>36036.3511</v>
+        <v>127388.535</v>
       </c>
       <c r="G389" t="n">
-        <v>19.49833333333334</v>
+        <v>19.49666666666668</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -14081,10 +14077,10 @@
         <v>19.5</v>
       </c>
       <c r="F390" t="n">
-        <v>849.1547</v>
+        <v>36036.3511</v>
       </c>
       <c r="G390" t="n">
-        <v>19.50000000000001</v>
+        <v>19.49833333333334</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -14104,22 +14100,22 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C391" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D391" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E391" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F391" t="n">
-        <v>50</v>
+        <v>849.1547</v>
       </c>
       <c r="G391" t="n">
-        <v>19.49833333333334</v>
+        <v>19.50000000000001</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -14151,10 +14147,10 @@
         <v>19.4</v>
       </c>
       <c r="F392" t="n">
-        <v>83420.71709999999</v>
+        <v>50</v>
       </c>
       <c r="G392" t="n">
-        <v>19.49666666666668</v>
+        <v>19.49833333333334</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -14186,7 +14182,7 @@
         <v>19.4</v>
       </c>
       <c r="F393" t="n">
-        <v>3456.493</v>
+        <v>83420.71709999999</v>
       </c>
       <c r="G393" t="n">
         <v>19.49666666666668</v>
@@ -14209,19 +14205,19 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C394" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D394" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E394" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F394" t="n">
-        <v>38377.3205</v>
+        <v>3456.493</v>
       </c>
       <c r="G394" t="n">
         <v>19.49666666666668</v>
@@ -14256,7 +14252,7 @@
         <v>19.5</v>
       </c>
       <c r="F395" t="n">
-        <v>193537.2819</v>
+        <v>38377.3205</v>
       </c>
       <c r="G395" t="n">
         <v>19.49666666666668</v>
@@ -14291,10 +14287,10 @@
         <v>19.5</v>
       </c>
       <c r="F396" t="n">
-        <v>51.1794</v>
+        <v>193537.2819</v>
       </c>
       <c r="G396" t="n">
-        <v>19.49500000000001</v>
+        <v>19.49666666666668</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -14314,22 +14310,22 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C397" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D397" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E397" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F397" t="n">
-        <v>8372.8452</v>
+        <v>51.1794</v>
       </c>
       <c r="G397" t="n">
-        <v>19.49166666666668</v>
+        <v>19.49500000000001</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -14361,10 +14357,10 @@
         <v>19.4</v>
       </c>
       <c r="F398" t="n">
-        <v>100</v>
+        <v>8372.8452</v>
       </c>
       <c r="G398" t="n">
-        <v>19.48833333333335</v>
+        <v>19.49166666666668</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -14384,22 +14380,22 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C399" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D399" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E399" t="n">
         <v>19.4</v>
       </c>
       <c r="F399" t="n">
-        <v>7233.8574</v>
+        <v>100</v>
       </c>
       <c r="G399" t="n">
-        <v>19.48666666666669</v>
+        <v>19.48833333333335</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -14428,13 +14424,13 @@
         <v>19.5</v>
       </c>
       <c r="E400" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F400" t="n">
-        <v>8115.7667</v>
+        <v>7233.8574</v>
       </c>
       <c r="G400" t="n">
-        <v>19.48500000000002</v>
+        <v>19.48666666666669</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -14466,10 +14462,10 @@
         <v>19.5</v>
       </c>
       <c r="F401" t="n">
-        <v>330017.5998</v>
+        <v>8115.7667</v>
       </c>
       <c r="G401" t="n">
-        <v>19.48333333333336</v>
+        <v>19.48500000000002</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -14501,10 +14497,10 @@
         <v>19.5</v>
       </c>
       <c r="F402" t="n">
-        <v>3197.57295384</v>
+        <v>330017.5998</v>
       </c>
       <c r="G402" t="n">
-        <v>19.48166666666669</v>
+        <v>19.48333333333336</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -14536,10 +14532,10 @@
         <v>19.5</v>
       </c>
       <c r="F403" t="n">
-        <v>162646.7389</v>
+        <v>3197.57295384</v>
       </c>
       <c r="G403" t="n">
-        <v>19.48000000000003</v>
+        <v>19.48166666666669</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -14571,10 +14567,10 @@
         <v>19.5</v>
       </c>
       <c r="F404" t="n">
-        <v>222997.36244616</v>
+        <v>162646.7389</v>
       </c>
       <c r="G404" t="n">
-        <v>19.47833333333336</v>
+        <v>19.48000000000003</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -14594,22 +14590,22 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C405" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D405" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E405" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F405" t="n">
-        <v>1104.7122</v>
+        <v>222997.36244616</v>
       </c>
       <c r="G405" t="n">
-        <v>19.47500000000003</v>
+        <v>19.47833333333336</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -14629,22 +14625,22 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C406" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D406" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="E406" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F406" t="n">
-        <v>510.20408163</v>
+        <v>1104.7122</v>
       </c>
       <c r="G406" t="n">
-        <v>19.47333333333336</v>
+        <v>19.47500000000003</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -14664,22 +14660,22 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C407" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D407" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E407" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F407" t="n">
-        <v>196431</v>
+        <v>510.20408163</v>
       </c>
       <c r="G407" t="n">
-        <v>19.4716666666667</v>
+        <v>19.47333333333336</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -14711,7 +14707,7 @@
         <v>19.5</v>
       </c>
       <c r="F408" t="n">
-        <v>49243.2698</v>
+        <v>196431</v>
       </c>
       <c r="G408" t="n">
         <v>19.4716666666667</v>
@@ -14746,7 +14742,7 @@
         <v>19.5</v>
       </c>
       <c r="F409" t="n">
-        <v>46561.9993</v>
+        <v>49243.2698</v>
       </c>
       <c r="G409" t="n">
         <v>19.4716666666667</v>
@@ -14781,7 +14777,7 @@
         <v>19.5</v>
       </c>
       <c r="F410" t="n">
-        <v>447.1358</v>
+        <v>46561.9993</v>
       </c>
       <c r="G410" t="n">
         <v>19.4716666666667</v>
@@ -14816,7 +14812,7 @@
         <v>19.5</v>
       </c>
       <c r="F411" t="n">
-        <v>7031.7182</v>
+        <v>447.1358</v>
       </c>
       <c r="G411" t="n">
         <v>19.4716666666667</v>
@@ -14851,7 +14847,7 @@
         <v>19.5</v>
       </c>
       <c r="F412" t="n">
-        <v>23510</v>
+        <v>7031.7182</v>
       </c>
       <c r="G412" t="n">
         <v>19.4716666666667</v>
@@ -14886,7 +14882,7 @@
         <v>19.5</v>
       </c>
       <c r="F413" t="n">
-        <v>173.2328</v>
+        <v>23510</v>
       </c>
       <c r="G413" t="n">
         <v>19.4716666666667</v>
@@ -14921,7 +14917,7 @@
         <v>19.5</v>
       </c>
       <c r="F414" t="n">
-        <v>5818.1278</v>
+        <v>173.2328</v>
       </c>
       <c r="G414" t="n">
         <v>19.4716666666667</v>
@@ -14956,7 +14952,7 @@
         <v>19.5</v>
       </c>
       <c r="F415" t="n">
-        <v>66684.80809999999</v>
+        <v>5818.1278</v>
       </c>
       <c r="G415" t="n">
         <v>19.4716666666667</v>
@@ -14991,10 +14987,10 @@
         <v>19.5</v>
       </c>
       <c r="F416" t="n">
-        <v>50567.4639</v>
+        <v>66684.80809999999</v>
       </c>
       <c r="G416" t="n">
-        <v>19.47000000000003</v>
+        <v>19.4716666666667</v>
       </c>
       <c r="H416" t="n">
         <v>0</v>
@@ -15026,7 +15022,7 @@
         <v>19.5</v>
       </c>
       <c r="F417" t="n">
-        <v>85816.8192</v>
+        <v>50567.4639</v>
       </c>
       <c r="G417" t="n">
         <v>19.47000000000003</v>
@@ -15061,7 +15057,7 @@
         <v>19.5</v>
       </c>
       <c r="F418" t="n">
-        <v>7812.0853</v>
+        <v>85816.8192</v>
       </c>
       <c r="G418" t="n">
         <v>19.47000000000003</v>
@@ -15096,7 +15092,7 @@
         <v>19.5</v>
       </c>
       <c r="F419" t="n">
-        <v>51398.067</v>
+        <v>7812.0853</v>
       </c>
       <c r="G419" t="n">
         <v>19.47000000000003</v>
@@ -15131,7 +15127,7 @@
         <v>19.5</v>
       </c>
       <c r="F420" t="n">
-        <v>75801.542</v>
+        <v>51398.067</v>
       </c>
       <c r="G420" t="n">
         <v>19.47000000000003</v>
@@ -15154,22 +15150,22 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C421" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D421" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E421" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F421" t="n">
-        <v>121.98979591</v>
+        <v>75801.542</v>
       </c>
       <c r="G421" t="n">
-        <v>19.4716666666667</v>
+        <v>19.47000000000003</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -15201,10 +15197,10 @@
         <v>19.6</v>
       </c>
       <c r="F422" t="n">
-        <v>1000</v>
+        <v>121.98979591</v>
       </c>
       <c r="G422" t="n">
-        <v>19.47333333333336</v>
+        <v>19.4716666666667</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -15236,10 +15232,10 @@
         <v>19.6</v>
       </c>
       <c r="F423" t="n">
-        <v>49.4897</v>
+        <v>1000</v>
       </c>
       <c r="G423" t="n">
-        <v>19.47500000000003</v>
+        <v>19.47333333333336</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -15271,10 +15267,10 @@
         <v>19.6</v>
       </c>
       <c r="F424" t="n">
-        <v>12</v>
+        <v>49.4897</v>
       </c>
       <c r="G424" t="n">
-        <v>19.47666666666669</v>
+        <v>19.47500000000003</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -15306,10 +15302,10 @@
         <v>19.6</v>
       </c>
       <c r="F425" t="n">
-        <v>510</v>
+        <v>12</v>
       </c>
       <c r="G425" t="n">
-        <v>19.47833333333336</v>
+        <v>19.47666666666669</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -15341,10 +15337,10 @@
         <v>19.6</v>
       </c>
       <c r="F426" t="n">
-        <v>41.0204</v>
+        <v>510</v>
       </c>
       <c r="G426" t="n">
-        <v>19.48166666666669</v>
+        <v>19.47833333333336</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -15364,22 +15360,22 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C427" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D427" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E427" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F427" t="n">
-        <v>94.62350000000001</v>
+        <v>41.0204</v>
       </c>
       <c r="G427" t="n">
-        <v>19.48333333333335</v>
+        <v>19.48166666666669</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -15399,22 +15395,22 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C428" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D428" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E428" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F428" t="n">
-        <v>111.02040816</v>
+        <v>94.62350000000001</v>
       </c>
       <c r="G428" t="n">
-        <v>19.48500000000002</v>
+        <v>19.48333333333335</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -15429,6 +15425,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C429" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D429" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E429" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F429" t="n">
+        <v>111.02040816</v>
+      </c>
+      <c r="G429" t="n">
+        <v>19.48500000000002</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-15 BackTest TRX.xlsx
+++ b/BackTest/2019-10-15 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>448489.3099684805</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>19</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>19</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -896,14 +880,10 @@
         <v>489192.1461339205</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -936,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -975,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1044,14 +1012,10 @@
         <v>400030.2187339205</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1084,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1720,17 +1672,11 @@
         <v>501435.3722166405</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1759,17 +1705,11 @@
         <v>501435.3722166405</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1802,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1835,17 +1771,11 @@
         <v>605618.6353166405</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1874,17 +1804,11 @@
         <v>605618.6353166405</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1913,17 +1837,11 @@
         <v>605618.6353166405</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1952,17 +1870,11 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1991,17 +1903,11 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2030,17 +1936,11 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2069,17 +1969,11 @@
         <v>1038269.39801664</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2112,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2149,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2182,17 +2068,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2221,17 +2101,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2264,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2297,17 +2167,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2373,17 +2233,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2449,17 +2299,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2488,17 +2332,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2527,17 +2365,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2566,17 +2398,11 @@
         <v>692587.4434166404</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2605,17 +2431,11 @@
         <v>693882.6329166404</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2644,17 +2464,11 @@
         <v>223406.4751166404</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2683,17 +2497,11 @@
         <v>223406.4751166404</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2726,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2759,17 +2563,11 @@
         <v>235132.5702166404</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3057,17 +2827,11 @@
         <v>317293.5042376904</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3096,17 +2860,11 @@
         <v>317293.5042376904</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3135,17 +2893,11 @@
         <v>317817.0644471103</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3174,17 +2926,11 @@
         <v>317817.0644471103</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3217,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3254,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3291,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3328,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3365,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3402,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3476,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3513,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3550,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3587,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3624,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3661,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3698,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3735,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3772,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3809,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3846,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3920,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3957,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3994,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4068,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4105,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4142,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4179,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4290,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4327,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4364,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4401,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4438,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4512,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4549,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4586,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4623,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4697,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4734,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4771,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4808,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4882,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4919,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4956,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4989,15 +4543,11 @@
         <v>307079.4336471104</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5026,15 +4576,11 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5063,15 +4609,11 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5100,15 +4642,11 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5137,15 +4675,11 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5174,15 +4708,11 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5211,15 +4741,11 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5248,15 +4774,11 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5285,15 +4807,11 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5322,15 +4840,11 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5359,15 +4873,11 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5396,15 +4906,11 @@
         <v>-180696.6024528896</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5433,15 +4939,11 @@
         <v>-365553.9610528896</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5470,15 +4972,11 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5507,15 +5005,11 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5544,15 +5038,11 @@
         <v>508769.7315471105</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5581,15 +5071,11 @@
         <v>407632.7910471105</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5618,15 +5104,11 @@
         <v>427632.7910471105</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5655,15 +5137,11 @@
         <v>391986.2979471104</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5696,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5733,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5770,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5807,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5844,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5918,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5955,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5992,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6029,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6103,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6136,15 +5566,11 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6173,15 +5599,11 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6210,15 +5632,11 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6247,15 +5665,11 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6284,15 +5698,11 @@
         <v>-128527.2165794296</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6321,15 +5731,11 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6358,15 +5764,11 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6395,15 +5797,11 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6432,15 +5830,11 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6469,15 +5863,11 @@
         <v>-165500.4772794296</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6506,15 +5896,11 @@
         <v>-165448.5385794296</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6543,15 +5929,11 @@
         <v>-166075.0132794296</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6580,15 +5962,11 @@
         <v>-134409.9980977996</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6617,15 +5995,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6654,15 +6028,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6691,15 +6061,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6728,15 +6094,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6765,15 +6127,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6802,15 +6160,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6876,15 +6226,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6913,15 +6259,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6950,15 +6292,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6987,15 +6325,11 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7024,15 +6358,11 @@
         <v>-134691.5004977996</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7065,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7102,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7139,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7176,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7250,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7320,15 +6622,11 @@
         <v>-452965.8390977996</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7361,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7435,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7472,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7509,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7583,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7620,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7657,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7731,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7768,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7805,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7842,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7879,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7916,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7953,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7990,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8027,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8064,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8101,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8138,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8175,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8212,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8286,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8360,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8397,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8434,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8471,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8545,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8582,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8619,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8656,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8689,15 +7843,11 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8726,15 +7876,11 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8763,15 +7909,11 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8800,15 +7942,11 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8837,15 +7975,11 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8874,16 +8008,14 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
       <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
@@ -8909,7 +8041,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8942,7 +8074,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8975,7 +8107,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9008,7 +8140,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9041,7 +8173,7 @@
         <v>-530093.5629708096</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9074,7 +8206,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9107,7 +8239,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9140,7 +8272,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9173,7 +8305,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9206,7 +8338,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9239,7 +8371,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9272,7 +8404,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9305,7 +8437,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9338,7 +8470,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9371,7 +8503,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9404,7 +8536,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9437,7 +8569,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9470,7 +8602,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9503,7 +8635,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9536,7 +8668,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9569,7 +8701,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9602,7 +8734,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9635,7 +8767,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9668,7 +8800,7 @@
         <v>-926208.0795708097</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9701,7 +8833,7 @@
         <v>-892598.7400708097</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9734,7 +8866,7 @@
         <v>-6015262.63077081</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9767,7 +8899,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9800,7 +8932,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9833,7 +8965,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10031,7 +9163,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10064,7 +9196,7 @@
         <v>-6015302.17187081</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10097,7 +9229,7 @@
         <v>-6015302.17187081</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10130,7 +9262,7 @@
         <v>-6015302.17187081</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10163,7 +9295,7 @@
         <v>-5984593.17187081</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -14123,10 +13255,14 @@
         <v>-5985042.21957871</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J390" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
@@ -14159,8 +13295,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +13334,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +13373,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14255,11 +13409,19 @@
         <v>-5976796.637178711</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J394" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14291,8 +13453,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14324,8 +13492,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14357,8 +13531,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14390,8 +13570,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14423,8 +13609,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14456,8 +13648,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14489,8 +13687,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14522,8 +13726,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +13765,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +13804,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14621,8 +13843,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +13882,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +13921,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14717,11 +13957,19 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J408" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14753,8 +14001,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14786,8 +14040,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14819,8 +14079,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14849,11 +14115,19 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J412" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14882,11 +14156,19 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J413" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14915,11 +14197,19 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J414" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14948,11 +14238,19 @@
         <v>-6010222.084478711</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J415" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14984,8 +14282,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15014,11 +14318,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J417" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15047,11 +14359,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J418" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15080,11 +14400,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J419" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15113,11 +14441,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J420" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15146,11 +14482,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J421" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +14523,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J422" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15212,11 +14564,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J423" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15245,11 +14605,19 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J424" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15278,11 +14646,19 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J425" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15311,11 +14687,19 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J426" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15344,11 +14728,19 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J427" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15377,11 +14769,19 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J428" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15413,8 +14813,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15443,11 +14849,19 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J430" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15479,8 +14893,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15509,11 +14929,19 @@
         <v>-5313286.29087871</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J432" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15545,8 +14973,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15578,8 +15012,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +15048,19 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J435" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15641,11 +15089,19 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J436" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15674,11 +15130,19 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J437" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15707,11 +15171,19 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J438" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15740,11 +15212,19 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J439" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15773,11 +15253,19 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J440" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15806,11 +15294,19 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J441" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15839,11 +15335,19 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J442" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15872,11 +15376,19 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J443" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15908,8 +15420,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15938,11 +15456,19 @@
         <v>-5146175.58137871</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J445" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15971,11 +15497,19 @@
         <v>-5170682.87417871</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J446" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16007,8 +15541,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16037,11 +15577,19 @@
         <v>-5134646.523078711</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J448" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16073,8 +15621,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16106,8 +15660,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16139,8 +15699,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16172,8 +15738,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16205,8 +15777,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16238,8 +15816,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16271,8 +15855,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16304,8 +15894,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16337,8 +15933,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16370,8 +15972,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16403,8 +16011,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16436,8 +16050,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16469,8 +16089,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16502,8 +16128,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16535,8 +16167,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16568,8 +16206,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16598,11 +16242,19 @@
         <v>-5098052.69849708</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J465" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16634,8 +16286,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16667,8 +16325,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16700,8 +16364,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16733,8 +16403,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16766,8 +16442,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16799,8 +16481,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16832,8 +16520,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16865,8 +16559,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16898,8 +16598,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16931,8 +16637,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16964,8 +16676,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16997,8 +16715,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17030,8 +16754,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17063,8 +16793,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17096,8 +16832,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17129,8 +16871,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17162,8 +16910,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17195,8 +16949,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17228,8 +16988,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17261,8 +17027,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17294,8 +17066,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17327,8 +17105,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17360,8 +17144,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17393,8 +17183,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17426,8 +17222,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17459,8 +17261,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17492,8 +17300,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +17339,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17558,8 +17378,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17591,8 +17417,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17624,8 +17456,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17657,14 +17495,20 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
       <c r="M497" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest TRX.xlsx
+++ b/BackTest/2019-10-15 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3421,7 +3421,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>216926.9760471104</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>215395.8135471104</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>215769.5890471104</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>701983.3558471104</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>424538.5118471103</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>524554.7362471104</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>307079.4336471104</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-180696.6024528896</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-365553.9610528896</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>508769.7315471105</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>407632.7910471105</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>427632.7910471105</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>391986.2979471104</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-128537.2165794296</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-128527.2165794296</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-161140.0370794296</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-165500.4772794296</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-165448.5385794296</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-166075.0132794296</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-149691.5004977996</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-530093.5629708096</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-926208.0795708097</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-892598.7400708097</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-6015262.63077081</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-6015247.63077081</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-6015302.17187081</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-6015302.17187081</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-6015302.17187081</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-5984593.17187081</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -12991,11 +12991,17 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13030,17 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13073,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13110,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13143,17 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13186,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13223,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13260,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13260,10 +13298,12 @@
       <c r="I390" t="n">
         <v>19.4</v>
       </c>
-      <c r="J390" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13295,12 +13335,10 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L391" t="n">
@@ -13334,12 +13372,10 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L392" t="n">
@@ -13373,9 +13409,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13409,14 +13443,10 @@
         <v>-5976796.637178711</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J394" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,9 +13483,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13492,9 +13520,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13531,9 +13557,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13570,9 +13594,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,9 +13631,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13648,9 +13668,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,9 +13705,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13726,9 +13742,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,9 +13779,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13804,9 +13816,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13843,9 +13853,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13882,9 +13890,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13921,9 +13927,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13957,14 +13961,10 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J408" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14001,9 +14001,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14040,9 +14038,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14079,9 +14075,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14115,14 +14109,10 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J412" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14156,14 +14146,10 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J413" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14197,14 +14183,10 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J414" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14238,14 +14220,10 @@
         <v>-6010222.084478711</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J415" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14282,9 +14260,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14318,14 +14294,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J417" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14359,14 +14331,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J418" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14400,14 +14368,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J419" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14441,14 +14405,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J420" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14482,14 +14442,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J421" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14523,14 +14479,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J422" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14564,14 +14516,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J423" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,14 +14553,10 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J424" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14646,14 +14590,10 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J425" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14687,14 +14627,10 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J426" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14728,14 +14664,10 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J427" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14769,14 +14701,10 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J428" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14813,9 +14741,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14849,14 +14775,10 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J430" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14893,9 +14815,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14929,14 +14849,10 @@
         <v>-5313286.29087871</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J432" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,9 +14889,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,9 +14926,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,14 +14960,10 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J435" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15089,14 +14997,10 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J436" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,14 +15034,10 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J437" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15171,14 +15071,10 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J438" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15212,14 +15108,10 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J439" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15258,9 +15150,7 @@
       <c r="I440" t="n">
         <v>19.4</v>
       </c>
-      <c r="J440" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15294,14 +15184,10 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J441" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15335,14 +15221,10 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J442" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15376,14 +15258,10 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J443" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15420,9 +15298,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15456,14 +15332,10 @@
         <v>-5146175.58137871</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J445" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15497,14 +15369,10 @@
         <v>-5170682.87417871</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J446" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15541,9 +15409,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15582,9 +15448,7 @@
       <c r="I448" t="n">
         <v>19.4</v>
       </c>
-      <c r="J448" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15618,12 +15482,12 @@
         <v>-5134646.523078711</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>19.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15657,12 +15521,12 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>19.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15696,12 +15560,12 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>19.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15738,9 +15602,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15777,9 +15639,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15816,9 +15676,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15855,9 +15713,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15894,9 +15750,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15933,9 +15787,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15972,9 +15824,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,9 +15861,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16050,9 +15898,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16089,9 +15935,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16128,9 +15972,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16167,9 +16009,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16206,9 +16046,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16242,14 +16080,10 @@
         <v>-5098052.69849708</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J465" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16286,9 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16325,9 +16157,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16364,9 +16194,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16403,9 +16231,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16442,9 +16268,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16481,9 +16305,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16520,9 +16342,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16559,9 +16379,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16598,9 +16416,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16637,9 +16453,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16676,9 +16490,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16715,9 +16527,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16754,9 +16564,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16793,9 +16601,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16832,9 +16638,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16871,9 +16675,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16910,9 +16712,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16949,9 +16749,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16988,9 +16786,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17027,9 +16823,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17066,9 +16860,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17105,9 +16897,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17144,9 +16934,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17183,9 +16971,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17222,9 +17008,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17261,9 +17045,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17300,9 +17082,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17339,9 +17119,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17378,9 +17156,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17417,9 +17193,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17456,9 +17230,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17495,9 +17267,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17509,6 +17279,6 @@
       <c r="M497" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest TRX.xlsx
+++ b/BackTest/2019-10-15 BackTest TRX.xlsx
@@ -3421,7 +3421,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-60413.15395288961</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-90975.02235288962</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-84058.82525288961</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>216926.9760471104</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>215395.8135471104</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>215769.5890471104</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>701983.3558471104</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>424538.5118471103</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>424554.7362471104</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>524554.7362471104</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>307079.4336471104</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-144444.5117528896</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-180706.6024528896</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-180696.6024528896</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-365553.9610528896</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-366035.0919528896</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>508769.7315471105</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>427632.7910471105</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>392195.4816205704</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>901694.6233205704</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>823221.8907205705</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>544740.0644205704</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>564819.4305205704</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-111908.0435794296</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-111908.0435794296</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>280916.0465022004</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>281677.0449291904</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>237433.5097291904</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>137443.5097291904</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>137453.5097291904</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-530093.5629708096</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-530076.3548708096</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1096585.89187081</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1032305.76497081</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1043294.39677081</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-767811.9284708097</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-926018.8325708098</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10747,10 +10747,14 @@
         <v>-5099557.96784443</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J314" t="n">
+        <v>19.5</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -10783,8 +10787,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +10826,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11011,10 +11027,14 @@
         <v>-5082324.22434443</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J322" t="n">
+        <v>19.5</v>
+      </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
@@ -11047,8 +11067,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11106,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11935,10 +11967,14 @@
         <v>-6155991.63326076</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J350" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
@@ -11968,11 +12004,19 @@
         <v>-6155991.63326076</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J351" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12045,19 @@
         <v>-6155991.63326076</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J352" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12086,19 @@
         <v>-6061270.39646076</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J353" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12127,19 @@
         <v>-6066362.53206076</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J354" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12171,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12207,19 @@
         <v>-6066362.53206076</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J356" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12251,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12287,19 @@
         <v>-6066362.53206076</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J358" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12328,19 @@
         <v>-6147667.93846076</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J359" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12369,19 @@
         <v>-6120858.83846076</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J360" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12410,19 @@
         <v>-6120858.83846076</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J361" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12451,19 @@
         <v>-6120858.83846076</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J362" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +12495,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +12534,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +12573,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12609,19 @@
         <v>-6110158.83846076</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J366" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +12653,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12689,19 @@
         <v>-6110158.83846076</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J368" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +12733,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12769,19 @@
         <v>-6099876.438560761</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J370" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +12813,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12849,19 @@
         <v>-6048594.38727871</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J372" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +12893,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12929,19 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J374" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +12973,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +13012,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +13051,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +13090,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +13129,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +13168,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13207,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12996,10 +13248,12 @@
       <c r="I382" t="n">
         <v>19.5</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L382" t="n">
@@ -13035,7 +13289,9 @@
       <c r="I383" t="n">
         <v>19.5</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13069,10 +13325,14 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J384" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13106,10 +13366,14 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J385" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13148,7 +13412,9 @@
       <c r="I386" t="n">
         <v>19.5</v>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13182,10 +13448,14 @@
         <v>-6060967.33857871</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J387" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13219,10 +13489,14 @@
         <v>-6061965.29647871</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J388" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13256,10 +13530,14 @@
         <v>-6061965.29647871</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J389" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13298,7 +13576,9 @@
       <c r="I390" t="n">
         <v>19.4</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13332,10 +13612,14 @@
         <v>-5985042.21957871</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J391" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13369,10 +13653,14 @@
         <v>-6000306.637178711</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J392" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13406,10 +13694,14 @@
         <v>-5976796.637178711</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J393" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13443,10 +13735,14 @@
         <v>-5976796.637178711</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J394" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13480,10 +13776,14 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J395" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13520,7 +13820,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13557,7 +13859,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13594,7 +13898,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13631,7 +13937,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13668,7 +13976,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13705,7 +14015,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13739,10 +14051,14 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J402" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13776,10 +14092,14 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J403" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13813,10 +14133,14 @@
         <v>-5976780.637178711</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J404" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13850,10 +14174,14 @@
         <v>-5975160.637178711</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J405" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13887,10 +14215,14 @@
         <v>-6023119.820778711</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J406" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13924,10 +14256,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J407" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13961,10 +14297,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J408" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13998,10 +14338,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J409" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14035,10 +14379,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J410" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14072,10 +14420,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J411" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14109,10 +14461,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J412" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,10 +14502,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J413" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14183,10 +14543,14 @@
         <v>-6031605.400778711</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J414" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14220,10 +14584,14 @@
         <v>-6010222.084478711</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J415" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14257,10 +14625,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J416" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14294,10 +14666,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J417" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14331,10 +14707,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J418" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14368,10 +14748,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J419" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14405,10 +14789,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J420" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14442,10 +14830,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J421" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14479,10 +14871,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J422" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14516,10 +14912,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J423" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14553,10 +14953,14 @@
         <v>-6012642.584478711</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J424" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14590,10 +14994,14 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J425" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14627,10 +15035,14 @@
         <v>-6031298.93447871</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J426" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14664,10 +15076,14 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J427" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14701,10 +15117,14 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J428" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14738,10 +15158,14 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J429" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,10 +15199,14 @@
         <v>-5400734.23227871</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J430" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14812,10 +15240,14 @@
         <v>-5457015.84307871</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J431" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14849,10 +15281,14 @@
         <v>-5313286.29087871</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J432" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14886,10 +15322,14 @@
         <v>-5313286.29087871</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J433" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14923,10 +15363,14 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J434" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14960,10 +15404,14 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J435" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14997,10 +15445,14 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J436" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15034,10 +15486,14 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J437" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15071,10 +15527,14 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J438" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15108,10 +15568,14 @@
         <v>-5316833.48337871</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J439" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,7 +15614,9 @@
       <c r="I440" t="n">
         <v>19.4</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15184,10 +15650,14 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J441" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15221,10 +15691,14 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J442" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15258,10 +15732,14 @@
         <v>-5103562.80807871</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J443" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15295,10 +15773,14 @@
         <v>-5149013.22237871</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J444" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15332,10 +15814,14 @@
         <v>-5146175.58137871</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J445" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15369,10 +15855,14 @@
         <v>-5170682.87417871</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J446" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15406,10 +15896,14 @@
         <v>-5170682.87417871</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J447" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15448,7 +15942,9 @@
       <c r="I448" t="n">
         <v>19.4</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15482,12 +15978,12 @@
         <v>-5134646.523078711</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J449" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15521,12 +16017,12 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J450" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15560,12 +16056,12 @@
         <v>-5134696.523078711</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J451" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15602,7 +16098,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15639,7 +16137,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,7 +16176,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15713,7 +16215,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,7 +16254,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15787,7 +16293,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15824,7 +16332,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15861,7 +16371,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15898,7 +16410,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15935,7 +16449,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15972,7 +16488,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16009,7 +16527,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16046,7 +16566,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16083,7 +16605,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,7 +16644,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16157,7 +16683,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16194,7 +16722,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,7 +16761,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16268,7 +16800,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16305,7 +16839,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16342,7 +16878,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16379,7 +16917,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,7 +16956,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16453,7 +16995,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16490,7 +17034,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16527,7 +17073,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16564,7 +17112,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16598,10 +17148,14 @@
         <v>-5294483.69849708</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J479" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16635,10 +17189,14 @@
         <v>-5294361.70870117</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J480" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16675,7 +17233,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16712,7 +17272,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16749,7 +17311,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16786,7 +17350,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16823,7 +17389,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16860,7 +17428,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,10 +17464,14 @@
         <v>-5294345.31179301</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J487" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16934,7 +17508,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16968,10 +17544,14 @@
         <v>-5297982.17339301</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J489" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17005,10 +17585,14 @@
         <v>-5297982.17339301</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J490" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17042,10 +17626,14 @@
         <v>-5297982.17339301</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J491" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17082,7 +17670,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17116,10 +17706,14 @@
         <v>-5298973.075493011</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J493" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17153,10 +17747,14 @@
         <v>-5298973.075493011</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J494" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17190,10 +17788,14 @@
         <v>-5298973.075493011</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J495" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17230,7 +17832,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17264,10 +17868,14 @@
         <v>-5305011.880893011</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J497" t="n">
+        <v>19.4</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
